--- a/trunk/WIP/Test/Test Case.xlsx
+++ b/trunk/WIP/Test/Test Case.xlsx
@@ -7,13 +7,11 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AU$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$2:$C$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$AU$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -901,7 +899,7 @@
   <dimension ref="A1:AT36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2677,28 +2675,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/trunk/WIP/Test/Test Case.xlsx
+++ b/trunk/WIP/Test/Test Case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,14 @@
     <sheet name="Create_question" sheetId="5" r:id="rId5"/>
     <sheet name="Edit _Question" sheetId="7" r:id="rId6"/>
     <sheet name="Delete_Question" sheetId="8" r:id="rId7"/>
+    <sheet name="Creats user" sheetId="9" r:id="rId8"/>
+    <sheet name="Creats register" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Create_Contest!$A$2:$C$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Create_question!$A$2:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Creats register'!$A$2:$C$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Creats user'!$A$2:$C$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Delete Contest'!$A$2:$C$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Delete_Question!$A$2:$C$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Edit _Question'!$A$2:$C$43</definedName>
@@ -25,6 +29,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$2:$C$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Create_Contest!$A$1:$AU$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Create_question!$A$1:$AU$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Creats register'!$A$1:$AT$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Creats user'!$A$1:$AU$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Delete Contest'!$A$1:$AU$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Delete_Question!$A$1:$AU$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Edit _Question'!$A$1:$AU$44</definedName>
@@ -32,12 +38,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$AU$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="146">
   <si>
     <t>INPUT</t>
   </si>
@@ -244,28 +249,277 @@
   <si>
     <t>Save Success</t>
   </si>
+  <si>
+    <t>CC_01</t>
+  </si>
+  <si>
+    <t>CC_02</t>
+  </si>
+  <si>
+    <t>CC_03</t>
+  </si>
+  <si>
+    <t>CC_04</t>
+  </si>
+  <si>
+    <t>CC_05</t>
+  </si>
+  <si>
+    <t>CC_06</t>
+  </si>
+  <si>
+    <t>EC_01</t>
+  </si>
+  <si>
+    <t>EC_02</t>
+  </si>
+  <si>
+    <t>EC_03</t>
+  </si>
+  <si>
+    <t>EC_04</t>
+  </si>
+  <si>
+    <t>EC_05</t>
+  </si>
+  <si>
+    <t>DC_01</t>
+  </si>
+  <si>
+    <t>DC_02</t>
+  </si>
+  <si>
+    <t>CQ_01</t>
+  </si>
+  <si>
+    <t>CQ_02</t>
+  </si>
+  <si>
+    <t>CQ_03</t>
+  </si>
+  <si>
+    <t>CQ_04</t>
+  </si>
+  <si>
+    <t>CQ_05</t>
+  </si>
+  <si>
+    <t>CQ_06</t>
+  </si>
+  <si>
+    <t>CQ_07</t>
+  </si>
+  <si>
+    <t>EQ_01</t>
+  </si>
+  <si>
+    <t>EQ_02</t>
+  </si>
+  <si>
+    <t>EQ_03</t>
+  </si>
+  <si>
+    <t>EQ_04</t>
+  </si>
+  <si>
+    <t>EQ_05</t>
+  </si>
+  <si>
+    <t>EQ_06</t>
+  </si>
+  <si>
+    <t>EQ_07</t>
+  </si>
+  <si>
+    <t>CU_01</t>
+  </si>
+  <si>
+    <t>CU_02</t>
+  </si>
+  <si>
+    <t>CU_03</t>
+  </si>
+  <si>
+    <t>CU_04</t>
+  </si>
+  <si>
+    <t>CU_05</t>
+  </si>
+  <si>
+    <t>The value of the User name :</t>
+  </si>
+  <si>
+    <t>"abc"</t>
+  </si>
+  <si>
+    <t>"123"</t>
+  </si>
+  <si>
+    <t>"admin"</t>
+  </si>
+  <si>
+    <t>"a2bcd!</t>
+  </si>
+  <si>
+    <t>The value of the Password :</t>
+  </si>
+  <si>
+    <t>"admin123"</t>
+  </si>
+  <si>
+    <t>"acb2!"</t>
+  </si>
+  <si>
+    <t>Click button Log On :</t>
+  </si>
+  <si>
+    <t>Display Message:</t>
+  </si>
+  <si>
+    <t>"The Password field is required."</t>
+  </si>
+  <si>
+    <t>"Login was unsuccessful. Please correct the errors and try again."</t>
+  </si>
+  <si>
+    <t>"The user name or password provided is incorrect"</t>
+  </si>
+  <si>
+    <t>"The User name field is required."</t>
+  </si>
+  <si>
+    <t>"Welcome to Duy Tan Online Judge!"</t>
+  </si>
+  <si>
+    <t>CR_001</t>
+  </si>
+  <si>
+    <t>CR_002</t>
+  </si>
+  <si>
+    <t>CR_003</t>
+  </si>
+  <si>
+    <t>CR_004</t>
+  </si>
+  <si>
+    <t>CR_005</t>
+  </si>
+  <si>
+    <t>"a2bcd!"</t>
+  </si>
+  <si>
+    <t>The value of the Mail addrees :</t>
+  </si>
+  <si>
+    <t>"abc@"</t>
+  </si>
+  <si>
+    <t>abc12@gmail.com</t>
+  </si>
+  <si>
+    <t>The value of the Confirm password :</t>
+  </si>
+  <si>
+    <t>"abcn!2"</t>
+  </si>
+  <si>
+    <t>The value of the User Role :</t>
+  </si>
+  <si>
+    <t>"student"</t>
+  </si>
+  <si>
+    <t>"teacher"</t>
+  </si>
+  <si>
+    <t>The value of the Student ID :</t>
+  </si>
+  <si>
+    <t>"12323"</t>
+  </si>
+  <si>
+    <t>"acb123"</t>
+  </si>
+  <si>
+    <t>The value of the Student Name :</t>
+  </si>
+  <si>
+    <t>"12312"</t>
+  </si>
+  <si>
+    <t>"abc123"</t>
+  </si>
+  <si>
+    <t>The value of the Class:</t>
+  </si>
+  <si>
+    <t>"acb12"</t>
+  </si>
+  <si>
+    <t>Click button Register:</t>
+  </si>
+  <si>
+    <t>"The Email address field is required."</t>
+  </si>
+  <si>
+    <t>"The Student ID field is required."</t>
+  </si>
+  <si>
+    <t>"The Student Name field is required."</t>
+  </si>
+  <si>
+    <t>"The Class field is required."</t>
+  </si>
+  <si>
+    <t>"The password and confirmation password do not match."</t>
+  </si>
+  <si>
+    <t>"Account creation was unsuccessful. Please correct the errors and try again."</t>
+  </si>
+  <si>
+    <t>"Not a valid Email Address"</t>
+  </si>
+  <si>
+    <t>"The Password must be at least 6 characters long."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.8000000000000007"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -282,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -711,11 +965,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,8 +1198,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -954,7 +1351,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -989,7 +1385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1165,23 +1560,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="43.875" customWidth="1"/>
-    <col min="3" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="49" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="49" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1229,7 +1624,7 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -1279,7 +1674,7 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1724,7 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="45"/>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
@@ -1377,7 +1772,7 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="45"/>
       <c r="B5" s="16"/>
       <c r="C5" s="13"/>
@@ -1425,7 +1820,7 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="45"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
@@ -1473,7 +1868,7 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="9"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="45"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
@@ -1521,7 +1916,7 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="9"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="45"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
@@ -1569,7 +1964,7 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="9"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="45"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
@@ -1617,7 +2012,7 @@
       <c r="AS9" s="8"/>
       <c r="AT9" s="9"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="45"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
@@ -1665,7 +2060,7 @@
       <c r="AS10" s="8"/>
       <c r="AT10" s="9"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="45"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
@@ -1713,7 +2108,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="9"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="45"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
@@ -1761,7 +2156,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="9"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="45"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
@@ -1809,7 +2204,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="9"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="45"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
@@ -1857,7 +2252,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="45"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
@@ -1905,7 +2300,7 @@
       <c r="AS15" s="8"/>
       <c r="AT15" s="9"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="45"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
@@ -1953,7 +2348,7 @@
       <c r="AS16" s="8"/>
       <c r="AT16" s="9"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="45"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
@@ -2001,7 +2396,7 @@
       <c r="AS17" s="8"/>
       <c r="AT17" s="9"/>
     </row>
-    <row r="18" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="15.75" thickBot="1">
       <c r="A18" s="46"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
@@ -2049,7 +2444,7 @@
       <c r="AS18" s="10"/>
       <c r="AT18" s="11"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2494,7 @@
       <c r="AS19" s="29"/>
       <c r="AT19" s="30"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="45"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
@@ -2147,7 +2542,7 @@
       <c r="AS20" s="8"/>
       <c r="AT20" s="9"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="45"/>
       <c r="B21" s="16"/>
       <c r="C21" s="13"/>
@@ -2195,7 +2590,7 @@
       <c r="AS21" s="8"/>
       <c r="AT21" s="9"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="45"/>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
@@ -2243,7 +2638,7 @@
       <c r="AS22" s="8"/>
       <c r="AT22" s="9"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="45"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
@@ -2291,7 +2686,7 @@
       <c r="AS23" s="8"/>
       <c r="AT23" s="9"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="45"/>
       <c r="B24" s="16"/>
       <c r="C24" s="13"/>
@@ -2339,7 +2734,7 @@
       <c r="AS24" s="8"/>
       <c r="AT24" s="9"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="45"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
@@ -2387,7 +2782,7 @@
       <c r="AS25" s="8"/>
       <c r="AT25" s="9"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="45"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
@@ -2435,7 +2830,7 @@
       <c r="AS26" s="8"/>
       <c r="AT26" s="9"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="45"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
@@ -2483,7 +2878,7 @@
       <c r="AS27" s="8"/>
       <c r="AT27" s="9"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="45"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
@@ -2531,7 +2926,7 @@
       <c r="AS28" s="8"/>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="45"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
@@ -2579,7 +2974,7 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="9"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="45"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
@@ -2627,7 +3022,7 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="9"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="45"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
@@ -2675,7 +3070,7 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="9"/>
     </row>
-    <row r="32" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15.75" thickBot="1">
       <c r="A32" s="48"/>
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
@@ -2723,7 +3118,7 @@
       <c r="AS32" s="32"/>
       <c r="AT32" s="33"/>
     </row>
-    <row r="33" spans="1:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" ht="42.75" customHeight="1">
       <c r="A33" s="49" t="s">
         <v>2</v>
       </c>
@@ -2773,7 +3168,7 @@
       <c r="AS33" s="25"/>
       <c r="AT33" s="26"/>
     </row>
-    <row r="34" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" ht="46.5" customHeight="1">
       <c r="A34" s="51" t="s">
         <v>3</v>
       </c>
@@ -2825,7 +3220,7 @@
       <c r="AS34" s="22"/>
       <c r="AT34" s="23"/>
     </row>
-    <row r="35" spans="1:46" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" ht="51" customHeight="1">
       <c r="A35" s="51" t="s">
         <v>4</v>
       </c>
@@ -2875,7 +3270,7 @@
       <c r="AS35" s="22"/>
       <c r="AT35" s="23"/>
     </row>
-    <row r="36" spans="1:46" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
       <c r="A36" s="42" t="s">
         <v>5</v>
       </c>
@@ -2948,23 +3343,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="49" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="49" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3012,17 +3407,29 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>73</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3062,7 +3469,7 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
@@ -3114,7 +3521,7 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="45"/>
       <c r="B4" s="34" t="s">
         <v>9</v>
@@ -3172,7 +3579,7 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="45"/>
       <c r="B5" s="34" t="s">
         <v>23</v>
@@ -3224,7 +3631,7 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="45"/>
       <c r="B6" s="34" t="s">
         <v>10</v>
@@ -3276,7 +3683,7 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="9"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="45"/>
       <c r="B7" s="16" t="s">
         <v>18</v>
@@ -3326,7 +3733,7 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="9"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="45"/>
       <c r="B8" s="34" t="s">
         <v>11</v>
@@ -3378,7 +3785,7 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="9"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="45"/>
       <c r="B9" s="34" t="s">
         <v>12</v>
@@ -3430,7 +3837,7 @@
       <c r="AS9" s="8"/>
       <c r="AT9" s="9"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="45"/>
       <c r="B10" s="34" t="s">
         <v>21</v>
@@ -3482,7 +3889,7 @@
       <c r="AS10" s="8"/>
       <c r="AT10" s="9"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="45"/>
       <c r="B11" s="34" t="s">
         <v>10</v>
@@ -3534,7 +3941,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="9"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="45"/>
       <c r="B12" s="34" t="s">
         <v>19</v>
@@ -3588,7 +3995,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="9"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="45"/>
       <c r="B13" s="16" t="s">
         <v>13</v>
@@ -3638,7 +4045,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="9"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="45"/>
       <c r="B14" s="34" t="s">
         <v>11</v>
@@ -3690,7 +4097,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="45"/>
       <c r="B15" s="34" t="s">
         <v>12</v>
@@ -3742,7 +4149,7 @@
       <c r="AS15" s="8"/>
       <c r="AT15" s="9"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="45"/>
       <c r="B16" s="34" t="s">
         <v>20</v>
@@ -3796,7 +4203,7 @@
       <c r="AS16" s="8"/>
       <c r="AT16" s="9"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="45"/>
       <c r="B17" s="34" t="s">
         <v>22</v>
@@ -3848,7 +4255,7 @@
       <c r="AS17" s="8"/>
       <c r="AT17" s="9"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="45"/>
       <c r="B18" s="34" t="s">
         <v>10</v>
@@ -3900,7 +4307,7 @@
       <c r="AS18" s="8"/>
       <c r="AT18" s="9"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="45"/>
       <c r="B19" s="16" t="s">
         <v>35</v>
@@ -3962,7 +4369,7 @@
       <c r="AS19" s="8"/>
       <c r="AT19" s="9"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="45"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
@@ -4010,7 +4417,7 @@
       <c r="AS20" s="8"/>
       <c r="AT20" s="9"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="45"/>
       <c r="B21" s="16"/>
       <c r="C21" s="13"/>
@@ -4058,7 +4465,7 @@
       <c r="AS21" s="8"/>
       <c r="AT21" s="9"/>
     </row>
-    <row r="22" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15.75" thickBot="1">
       <c r="A22" s="46"/>
       <c r="B22" s="27"/>
       <c r="C22" s="14"/>
@@ -4106,7 +4513,7 @@
       <c r="AS22" s="10"/>
       <c r="AT22" s="11"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="47" t="s">
         <v>1</v>
       </c>
@@ -4158,7 +4565,7 @@
       <c r="AS23" s="29"/>
       <c r="AT23" s="30"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="45"/>
       <c r="B24" s="34" t="s">
         <v>16</v>
@@ -4210,7 +4617,7 @@
       <c r="AS24" s="8"/>
       <c r="AT24" s="9"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="45"/>
       <c r="B25" s="34" t="s">
         <v>17</v>
@@ -4262,7 +4669,7 @@
       <c r="AS25" s="8"/>
       <c r="AT25" s="9"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="45"/>
       <c r="B26" s="34" t="s">
         <v>30</v>
@@ -4314,7 +4721,7 @@
       <c r="AS26" s="8"/>
       <c r="AT26" s="9"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="45"/>
       <c r="B27" s="34" t="s">
         <v>31</v>
@@ -4366,7 +4773,7 @@
       <c r="AS27" s="8"/>
       <c r="AT27" s="9"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="45"/>
       <c r="B28" s="34" t="s">
         <v>32</v>
@@ -4418,7 +4825,7 @@
       <c r="AS28" s="8"/>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="45"/>
       <c r="B29" s="34" t="s">
         <v>33</v>
@@ -4470,7 +4877,7 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="9"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="45"/>
       <c r="B30" s="34" t="s">
         <v>34</v>
@@ -4522,7 +4929,7 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="9"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="45"/>
       <c r="B31" s="16" t="s">
         <v>36</v>
@@ -4576,7 +4983,7 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="9"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="45"/>
       <c r="B32" s="16"/>
       <c r="C32" s="13"/>
@@ -4624,7 +5031,7 @@
       <c r="AS32" s="8"/>
       <c r="AT32" s="9"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="45"/>
       <c r="B33" s="16"/>
       <c r="C33" s="13"/>
@@ -4672,7 +5079,7 @@
       <c r="AS33" s="8"/>
       <c r="AT33" s="9"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="45"/>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
@@ -4720,7 +5127,7 @@
       <c r="AS34" s="8"/>
       <c r="AT34" s="9"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="45"/>
       <c r="B35" s="16"/>
       <c r="C35" s="13"/>
@@ -4768,7 +5175,7 @@
       <c r="AS35" s="8"/>
       <c r="AT35" s="9"/>
     </row>
-    <row r="36" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="15.75" thickBot="1">
       <c r="A36" s="48"/>
       <c r="B36" s="17"/>
       <c r="C36" s="31"/>
@@ -4816,7 +5223,7 @@
       <c r="AS36" s="32"/>
       <c r="AT36" s="33"/>
     </row>
-    <row r="37" spans="1:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" ht="42.75" customHeight="1">
       <c r="A37" s="49" t="s">
         <v>2</v>
       </c>
@@ -4866,14 +5273,12 @@
       <c r="AS37" s="25"/>
       <c r="AT37" s="26"/>
     </row>
-    <row r="38" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" ht="46.5" customHeight="1">
       <c r="A38" s="51" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="52"/>
-      <c r="C38" s="21" t="s">
-        <v>6</v>
-      </c>
+      <c r="C38" s="21"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -4918,7 +5323,7 @@
       <c r="AS38" s="22"/>
       <c r="AT38" s="23"/>
     </row>
-    <row r="39" spans="1:46" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" ht="51" customHeight="1">
       <c r="A39" s="51" t="s">
         <v>4</v>
       </c>
@@ -4968,7 +5373,7 @@
       <c r="AS39" s="22"/>
       <c r="AT39" s="23"/>
     </row>
-    <row r="40" spans="1:46" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
       <c r="A40" s="42" t="s">
         <v>5</v>
       </c>
@@ -5048,28 +5453,28 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="41" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="49" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="49" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5117,16 +5522,26 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>78</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -5167,7 +5582,7 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
@@ -5221,7 +5636,7 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="45"/>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
@@ -5269,7 +5684,7 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="45"/>
       <c r="B5" s="16" t="s">
         <v>25</v>
@@ -5319,7 +5734,7 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="45"/>
       <c r="B6" s="34" t="s">
         <v>23</v>
@@ -5377,7 +5792,7 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="9"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="45"/>
       <c r="B7" s="34" t="s">
         <v>10</v>
@@ -5429,7 +5844,7 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="9"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="45"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
@@ -5479,7 +5894,7 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="9"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="45"/>
       <c r="B9" s="34" t="s">
         <v>11</v>
@@ -5531,7 +5946,7 @@
       <c r="AS9" s="8"/>
       <c r="AT9" s="9"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="45"/>
       <c r="B10" s="34" t="s">
         <v>12</v>
@@ -5583,7 +5998,7 @@
       <c r="AS10" s="8"/>
       <c r="AT10" s="9"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="45"/>
       <c r="B11" s="34" t="s">
         <v>21</v>
@@ -5635,7 +6050,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="9"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="45"/>
       <c r="B12" s="34" t="s">
         <v>10</v>
@@ -5687,7 +6102,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="9"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="45"/>
       <c r="B13" s="34" t="s">
         <v>19</v>
@@ -5739,7 +6154,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="9"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="45"/>
       <c r="B14" s="16" t="s">
         <v>13</v>
@@ -5789,7 +6204,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="45"/>
       <c r="B15" s="34" t="s">
         <v>11</v>
@@ -5841,7 +6256,7 @@
       <c r="AS15" s="8"/>
       <c r="AT15" s="9"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="45"/>
       <c r="B16" s="34" t="s">
         <v>12</v>
@@ -5893,7 +6308,7 @@
       <c r="AS16" s="8"/>
       <c r="AT16" s="9"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="45"/>
       <c r="B17" s="34" t="s">
         <v>20</v>
@@ -5945,7 +6360,7 @@
       <c r="AS17" s="8"/>
       <c r="AT17" s="9"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="45"/>
       <c r="B18" s="34" t="s">
         <v>22</v>
@@ -5997,7 +6412,7 @@
       <c r="AS18" s="8"/>
       <c r="AT18" s="9"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="45"/>
       <c r="B19" s="34" t="s">
         <v>10</v>
@@ -6049,7 +6464,7 @@
       <c r="AS19" s="8"/>
       <c r="AT19" s="9"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="46"/>
       <c r="B20" s="27" t="s">
         <v>39</v>
@@ -6099,7 +6514,7 @@
       <c r="AS20" s="10"/>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="46"/>
       <c r="B21" s="35"/>
       <c r="C21" s="14"/>
@@ -6147,7 +6562,7 @@
       <c r="AS21" s="10"/>
       <c r="AT21" s="11"/>
     </row>
-    <row r="22" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15.75" thickBot="1">
       <c r="A22" s="46"/>
       <c r="B22" s="27"/>
       <c r="C22" s="14"/>
@@ -6195,7 +6610,7 @@
       <c r="AS22" s="10"/>
       <c r="AT22" s="11"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="47" t="s">
         <v>1</v>
       </c>
@@ -6247,7 +6662,7 @@
       <c r="AS23" s="29"/>
       <c r="AT23" s="30"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="45"/>
       <c r="B24" s="34" t="s">
         <v>9</v>
@@ -6297,7 +6712,7 @@
       <c r="AS24" s="8"/>
       <c r="AT24" s="9"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="45"/>
       <c r="B25" s="16" t="s">
         <v>18</v>
@@ -6347,7 +6762,7 @@
       <c r="AS25" s="8"/>
       <c r="AT25" s="9"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="45"/>
       <c r="B26" s="34" t="s">
         <v>11</v>
@@ -6397,7 +6812,7 @@
       <c r="AS26" s="8"/>
       <c r="AT26" s="9"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="45"/>
       <c r="B27" s="16" t="s">
         <v>13</v>
@@ -6447,7 +6862,7 @@
       <c r="AS27" s="8"/>
       <c r="AT27" s="9"/>
     </row>
-    <row r="28" spans="1:46" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="21" customHeight="1" thickBot="1">
       <c r="A28" s="45"/>
       <c r="B28" s="34" t="s">
         <v>11</v>
@@ -6497,7 +6912,7 @@
       <c r="AS28" s="8"/>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="45"/>
       <c r="B29" s="15" t="s">
         <v>15</v>
@@ -6547,7 +6962,7 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="9"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="45"/>
       <c r="B30" s="34" t="s">
         <v>16</v>
@@ -6599,7 +7014,7 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="9"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="45"/>
       <c r="B31" s="34" t="s">
         <v>17</v>
@@ -6651,7 +7066,7 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="9"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="45"/>
       <c r="B32" s="34" t="s">
         <v>30</v>
@@ -6703,7 +7118,7 @@
       <c r="AS32" s="8"/>
       <c r="AT32" s="9"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="45"/>
       <c r="B33" s="34" t="s">
         <v>31</v>
@@ -6755,7 +7170,7 @@
       <c r="AS33" s="8"/>
       <c r="AT33" s="9"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="45"/>
       <c r="B34" s="34" t="s">
         <v>32</v>
@@ -6807,7 +7222,7 @@
       <c r="AS34" s="8"/>
       <c r="AT34" s="9"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="45"/>
       <c r="B35" s="34" t="s">
         <v>33</v>
@@ -6857,7 +7272,7 @@
       <c r="AS35" s="8"/>
       <c r="AT35" s="9"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46">
       <c r="A36" s="45"/>
       <c r="B36" s="34" t="s">
         <v>34</v>
@@ -6907,7 +7322,7 @@
       <c r="AS36" s="8"/>
       <c r="AT36" s="9"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46">
       <c r="A37" s="45"/>
       <c r="B37" s="16" t="s">
         <v>40</v>
@@ -6961,7 +7376,7 @@
       <c r="AS37" s="8"/>
       <c r="AT37" s="9"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46">
       <c r="A38" s="45"/>
       <c r="B38" s="16"/>
       <c r="C38" s="13"/>
@@ -7009,7 +7424,7 @@
       <c r="AS38" s="8"/>
       <c r="AT38" s="9"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46">
       <c r="A39" s="45"/>
       <c r="B39" s="16"/>
       <c r="C39" s="13"/>
@@ -7057,7 +7472,7 @@
       <c r="AS39" s="8"/>
       <c r="AT39" s="9"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46">
       <c r="A40" s="45"/>
       <c r="B40" s="16"/>
       <c r="C40" s="13"/>
@@ -7105,7 +7520,7 @@
       <c r="AS40" s="8"/>
       <c r="AT40" s="9"/>
     </row>
-    <row r="41" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="15.75" thickBot="1">
       <c r="A41" s="48"/>
       <c r="B41" s="17"/>
       <c r="C41" s="31"/>
@@ -7153,7 +7568,7 @@
       <c r="AS41" s="32"/>
       <c r="AT41" s="33"/>
     </row>
-    <row r="42" spans="1:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" ht="42.75" customHeight="1">
       <c r="A42" s="49" t="s">
         <v>2</v>
       </c>
@@ -7203,14 +7618,12 @@
       <c r="AS42" s="25"/>
       <c r="AT42" s="26"/>
     </row>
-    <row r="43" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" ht="46.5" customHeight="1">
       <c r="A43" s="51" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="52"/>
-      <c r="C43" s="21" t="s">
-        <v>6</v>
-      </c>
+      <c r="C43" s="21"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -7255,7 +7668,7 @@
       <c r="AS43" s="22"/>
       <c r="AT43" s="23"/>
     </row>
-    <row r="44" spans="1:46" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" ht="51" customHeight="1">
       <c r="A44" s="51" t="s">
         <v>4</v>
       </c>
@@ -7305,7 +7718,7 @@
       <c r="AS44" s="22"/>
       <c r="AT44" s="23"/>
     </row>
-    <row r="45" spans="1:46" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
       <c r="A45" s="42" t="s">
         <v>5</v>
       </c>
@@ -7383,28 +7796,28 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="43.875" customWidth="1"/>
-    <col min="3" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="49" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="49" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7452,13 +7865,17 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>80</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7502,7 +7919,7 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
@@ -7558,7 +7975,7 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="45"/>
       <c r="B4" s="16" t="s">
         <v>28</v>
@@ -7610,7 +8027,7 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="45"/>
       <c r="B5" s="16" t="s">
         <v>41</v>
@@ -7662,7 +8079,7 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="45"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
@@ -7710,7 +8127,7 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="9"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="45"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
@@ -7758,7 +8175,7 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="9"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="45"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
@@ -7806,7 +8223,7 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="9"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="45"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
@@ -7854,7 +8271,7 @@
       <c r="AS9" s="8"/>
       <c r="AT9" s="9"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="45"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
@@ -7902,7 +8319,7 @@
       <c r="AS10" s="8"/>
       <c r="AT10" s="9"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="45"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
@@ -7950,7 +8367,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="9"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="45"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
@@ -7998,7 +8415,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="9"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="45"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
@@ -8046,7 +8463,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="9"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="45"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
@@ -8094,7 +8511,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="45"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
@@ -8142,7 +8559,7 @@
       <c r="AS15" s="8"/>
       <c r="AT15" s="9"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="45"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
@@ -8190,7 +8607,7 @@
       <c r="AS16" s="8"/>
       <c r="AT16" s="9"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="45"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
@@ -8238,7 +8655,7 @@
       <c r="AS17" s="8"/>
       <c r="AT17" s="9"/>
     </row>
-    <row r="18" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="15.75" thickBot="1">
       <c r="A18" s="46"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
@@ -8286,7 +8703,7 @@
       <c r="AS18" s="10"/>
       <c r="AT18" s="11"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
@@ -8338,7 +8755,7 @@
       <c r="AS19" s="29"/>
       <c r="AT19" s="30"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="45"/>
       <c r="B20" s="34" t="s">
         <v>29</v>
@@ -8390,7 +8807,7 @@
       <c r="AS20" s="8"/>
       <c r="AT20" s="9"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="45"/>
       <c r="B21" s="16" t="s">
         <v>42</v>
@@ -8442,7 +8859,7 @@
       <c r="AS21" s="8"/>
       <c r="AT21" s="9"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="45"/>
       <c r="B22" s="34"/>
       <c r="C22" s="13"/>
@@ -8490,7 +8907,7 @@
       <c r="AS22" s="8"/>
       <c r="AT22" s="9"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="45"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
@@ -8538,7 +8955,7 @@
       <c r="AS23" s="8"/>
       <c r="AT23" s="9"/>
     </row>
-    <row r="24" spans="1:46" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" ht="21" customHeight="1">
       <c r="A24" s="45"/>
       <c r="B24" s="34"/>
       <c r="C24" s="13"/>
@@ -8586,7 +9003,7 @@
       <c r="AS24" s="8"/>
       <c r="AT24" s="9"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="45"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
@@ -8634,7 +9051,7 @@
       <c r="AS25" s="8"/>
       <c r="AT25" s="9"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="45"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
@@ -8682,7 +9099,7 @@
       <c r="AS26" s="8"/>
       <c r="AT26" s="9"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="45"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
@@ -8730,7 +9147,7 @@
       <c r="AS27" s="8"/>
       <c r="AT27" s="9"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="45"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
@@ -8778,7 +9195,7 @@
       <c r="AS28" s="8"/>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="45"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
@@ -8826,7 +9243,7 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="9"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="45"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
@@ -8874,7 +9291,7 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="9"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="45"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
@@ -8922,7 +9339,7 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="9"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="45"/>
       <c r="B32" s="16"/>
       <c r="C32" s="13"/>
@@ -8970,7 +9387,7 @@
       <c r="AS32" s="8"/>
       <c r="AT32" s="9"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="45"/>
       <c r="B33" s="16"/>
       <c r="C33" s="13"/>
@@ -9018,7 +9435,7 @@
       <c r="AS33" s="8"/>
       <c r="AT33" s="9"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="45"/>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
@@ -9066,7 +9483,7 @@
       <c r="AS34" s="8"/>
       <c r="AT34" s="9"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="45"/>
       <c r="B35" s="16"/>
       <c r="C35" s="13"/>
@@ -9114,7 +9531,7 @@
       <c r="AS35" s="8"/>
       <c r="AT35" s="9"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46">
       <c r="A36" s="45"/>
       <c r="B36" s="16"/>
       <c r="C36" s="13"/>
@@ -9162,7 +9579,7 @@
       <c r="AS36" s="8"/>
       <c r="AT36" s="9"/>
     </row>
-    <row r="37" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" ht="15.75" thickBot="1">
       <c r="A37" s="48"/>
       <c r="B37" s="17"/>
       <c r="C37" s="31"/>
@@ -9210,7 +9627,7 @@
       <c r="AS37" s="32"/>
       <c r="AT37" s="33"/>
     </row>
-    <row r="38" spans="1:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" ht="42.75" customHeight="1">
       <c r="A38" s="49" t="s">
         <v>2</v>
       </c>
@@ -9260,7 +9677,7 @@
       <c r="AS38" s="25"/>
       <c r="AT38" s="26"/>
     </row>
-    <row r="39" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" ht="46.5" customHeight="1">
       <c r="A39" s="51" t="s">
         <v>3</v>
       </c>
@@ -9312,7 +9729,7 @@
       <c r="AS39" s="22"/>
       <c r="AT39" s="23"/>
     </row>
-    <row r="40" spans="1:46" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" ht="51" customHeight="1">
       <c r="A40" s="51" t="s">
         <v>4</v>
       </c>
@@ -9362,7 +9779,7 @@
       <c r="AS40" s="22"/>
       <c r="AT40" s="23"/>
     </row>
-    <row r="41" spans="1:46" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
       <c r="A41" s="42" t="s">
         <v>5</v>
       </c>
@@ -9435,23 +9852,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="49" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="49" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9499,18 +9916,32 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>87</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -9549,7 +9980,7 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
@@ -9601,7 +10032,7 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="45"/>
       <c r="B4" s="34" t="s">
         <v>54</v>
@@ -9653,7 +10084,7 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="45"/>
       <c r="B5" s="16" t="s">
         <v>55</v>
@@ -9703,7 +10134,7 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="45"/>
       <c r="B6" s="16" t="s">
         <v>56</v>
@@ -9765,7 +10196,7 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="9"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="45"/>
       <c r="B7" s="16" t="s">
         <v>57</v>
@@ -9815,7 +10246,7 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="9"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="45"/>
       <c r="B8" s="16" t="s">
         <v>58</v>
@@ -9867,7 +10298,7 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="9"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="45"/>
       <c r="B9" s="16" t="s">
         <v>59</v>
@@ -9919,7 +10350,7 @@
       <c r="AS9" s="8"/>
       <c r="AT9" s="9"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="45"/>
       <c r="B10" s="16" t="s">
         <v>60</v>
@@ -9971,7 +10402,7 @@
       <c r="AS10" s="8"/>
       <c r="AT10" s="9"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="45"/>
       <c r="B11" s="16" t="s">
         <v>61</v>
@@ -10025,7 +10456,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="9"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="45"/>
       <c r="B12" s="16" t="s">
         <v>63</v>
@@ -10077,7 +10508,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="9"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="45"/>
       <c r="B13" s="16" t="s">
         <v>62</v>
@@ -10127,7 +10558,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="9"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="45"/>
       <c r="B14" s="16" t="s">
         <v>58</v>
@@ -10179,7 +10610,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="45"/>
       <c r="B15" s="16" t="s">
         <v>59</v>
@@ -10231,7 +10662,7 @@
       <c r="AS15" s="8"/>
       <c r="AT15" s="9"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="45"/>
       <c r="B16" s="16" t="s">
         <v>60</v>
@@ -10283,7 +10714,7 @@
       <c r="AS16" s="8"/>
       <c r="AT16" s="9"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="45"/>
       <c r="B17" s="16" t="s">
         <v>61</v>
@@ -10335,7 +10766,7 @@
       <c r="AS17" s="8"/>
       <c r="AT17" s="9"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="45"/>
       <c r="B18" s="16" t="s">
         <v>63</v>
@@ -10389,7 +10820,7 @@
       <c r="AS18" s="8"/>
       <c r="AT18" s="9"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="46"/>
       <c r="B19" s="27" t="s">
         <v>64</v>
@@ -10439,7 +10870,7 @@
       <c r="AS19" s="10"/>
       <c r="AT19" s="11"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="46"/>
       <c r="B20" s="27">
         <v>-1</v>
@@ -10491,7 +10922,7 @@
       <c r="AS20" s="10"/>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="46"/>
       <c r="B21" s="27">
         <v>15</v>
@@ -10549,7 +10980,7 @@
       <c r="AS21" s="10"/>
       <c r="AT21" s="11"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="46"/>
       <c r="B22" s="27">
         <v>101</v>
@@ -10601,7 +11032,7 @@
       <c r="AS22" s="10"/>
       <c r="AT22" s="11"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="46"/>
       <c r="B23" s="27"/>
       <c r="C23" s="14"/>
@@ -10649,7 +11080,7 @@
       <c r="AS23" s="10"/>
       <c r="AT23" s="11"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="46"/>
       <c r="B24" s="27"/>
       <c r="C24" s="14"/>
@@ -10697,7 +11128,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="11"/>
     </row>
-    <row r="25" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15.75" thickBot="1">
       <c r="A25" s="46"/>
       <c r="B25" s="27"/>
       <c r="C25" s="14"/>
@@ -10745,7 +11176,7 @@
       <c r="AS25" s="10"/>
       <c r="AT25" s="11"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="47" t="s">
         <v>1</v>
       </c>
@@ -10797,7 +11228,7 @@
       <c r="AS26" s="29"/>
       <c r="AT26" s="30"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="45"/>
       <c r="B27" s="37" t="s">
         <v>44</v>
@@ -10849,7 +11280,7 @@
       <c r="AS27" s="8"/>
       <c r="AT27" s="9"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="45"/>
       <c r="B28" s="38" t="s">
         <v>45</v>
@@ -10901,7 +11332,7 @@
       <c r="AS28" s="8"/>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="45"/>
       <c r="B29" s="39" t="s">
         <v>46</v>
@@ -10953,7 +11384,7 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="9"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="45"/>
       <c r="B30" s="37" t="s">
         <v>47</v>
@@ -11005,9 +11436,9 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="9"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="45"/>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -11057,7 +11488,7 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="9"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="45"/>
       <c r="B32" s="39" t="s">
         <v>49</v>
@@ -11109,7 +11540,7 @@
       <c r="AS32" s="8"/>
       <c r="AT32" s="9"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="45"/>
       <c r="B33" s="39" t="s">
         <v>50</v>
@@ -11161,7 +11592,7 @@
       <c r="AS33" s="8"/>
       <c r="AT33" s="9"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="45"/>
       <c r="B34" s="39" t="s">
         <v>51</v>
@@ -11213,7 +11644,7 @@
       <c r="AS34" s="8"/>
       <c r="AT34" s="9"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="45"/>
       <c r="B35" s="37" t="s">
         <v>52</v>
@@ -11265,7 +11696,7 @@
       <c r="AS35" s="8"/>
       <c r="AT35" s="9"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46">
       <c r="A36" s="45"/>
       <c r="B36" s="41" t="s">
         <v>65</v>
@@ -11319,7 +11750,7 @@
       <c r="AS36" s="8"/>
       <c r="AT36" s="9"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46">
       <c r="A37" s="45"/>
       <c r="B37" s="34" t="s">
         <v>66</v>
@@ -11379,7 +11810,7 @@
       <c r="AS37" s="8"/>
       <c r="AT37" s="9"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46">
       <c r="A38" s="45"/>
       <c r="B38" s="16" t="s">
         <v>67</v>
@@ -11431,7 +11862,7 @@
       <c r="AS38" s="8"/>
       <c r="AT38" s="9"/>
     </row>
-    <row r="39" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="15.75" thickBot="1">
       <c r="A39" s="48"/>
       <c r="B39" s="17"/>
       <c r="C39" s="31"/>
@@ -11479,7 +11910,7 @@
       <c r="AS39" s="32"/>
       <c r="AT39" s="33"/>
     </row>
-    <row r="40" spans="1:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" ht="42.75" customHeight="1">
       <c r="A40" s="49" t="s">
         <v>2</v>
       </c>
@@ -11529,7 +11960,7 @@
       <c r="AS40" s="25"/>
       <c r="AT40" s="26"/>
     </row>
-    <row r="41" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" ht="46.5" customHeight="1">
       <c r="A41" s="51" t="s">
         <v>3</v>
       </c>
@@ -11581,7 +12012,7 @@
       <c r="AS41" s="22"/>
       <c r="AT41" s="23"/>
     </row>
-    <row r="42" spans="1:46" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" ht="51" customHeight="1">
       <c r="A42" s="51" t="s">
         <v>4</v>
       </c>
@@ -11631,7 +12062,7 @@
       <c r="AS42" s="22"/>
       <c r="AT42" s="23"/>
     </row>
-    <row r="43" spans="1:46" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
       <c r="A43" s="42" t="s">
         <v>5</v>
       </c>
@@ -11713,28 +12144,28 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="49" width="3.625" customWidth="1"/>
+    <col min="3" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="49" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11782,18 +12213,32 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>94</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -11832,7 +12277,7 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
@@ -11884,7 +12329,7 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="45"/>
       <c r="B4" s="34" t="s">
         <v>54</v>
@@ -11936,7 +12381,7 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="45"/>
       <c r="B5" s="16" t="s">
         <v>55</v>
@@ -11986,7 +12431,7 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="45"/>
       <c r="B6" s="16" t="s">
         <v>56</v>
@@ -12048,7 +12493,7 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="9"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="45"/>
       <c r="B7" s="16" t="s">
         <v>57</v>
@@ -12098,7 +12543,7 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="9"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="45"/>
       <c r="B8" s="16" t="s">
         <v>58</v>
@@ -12150,7 +12595,7 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="9"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="45"/>
       <c r="B9" s="16" t="s">
         <v>59</v>
@@ -12202,7 +12647,7 @@
       <c r="AS9" s="8"/>
       <c r="AT9" s="9"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="45"/>
       <c r="B10" s="16" t="s">
         <v>60</v>
@@ -12254,7 +12699,7 @@
       <c r="AS10" s="8"/>
       <c r="AT10" s="9"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="45"/>
       <c r="B11" s="16" t="s">
         <v>61</v>
@@ -12308,7 +12753,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="9"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="45"/>
       <c r="B12" s="16" t="s">
         <v>63</v>
@@ -12360,7 +12805,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="9"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="45"/>
       <c r="B13" s="16" t="s">
         <v>62</v>
@@ -12410,7 +12855,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="9"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="45"/>
       <c r="B14" s="16" t="s">
         <v>58</v>
@@ -12462,7 +12907,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="45"/>
       <c r="B15" s="16" t="s">
         <v>59</v>
@@ -12514,7 +12959,7 @@
       <c r="AS15" s="8"/>
       <c r="AT15" s="9"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="45"/>
       <c r="B16" s="16" t="s">
         <v>60</v>
@@ -12566,7 +13011,7 @@
       <c r="AS16" s="8"/>
       <c r="AT16" s="9"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="45"/>
       <c r="B17" s="16" t="s">
         <v>61</v>
@@ -12618,7 +13063,7 @@
       <c r="AS17" s="8"/>
       <c r="AT17" s="9"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="45"/>
       <c r="B18" s="16" t="s">
         <v>63</v>
@@ -12672,7 +13117,7 @@
       <c r="AS18" s="8"/>
       <c r="AT18" s="9"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="46"/>
       <c r="B19" s="27" t="s">
         <v>64</v>
@@ -12722,7 +13167,7 @@
       <c r="AS19" s="10"/>
       <c r="AT19" s="11"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="46"/>
       <c r="B20" s="27">
         <v>-1</v>
@@ -12774,7 +13219,7 @@
       <c r="AS20" s="10"/>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="46"/>
       <c r="B21" s="27">
         <v>15</v>
@@ -12832,7 +13277,7 @@
       <c r="AS21" s="10"/>
       <c r="AT21" s="11"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="46"/>
       <c r="B22" s="27">
         <v>101</v>
@@ -12884,7 +13329,7 @@
       <c r="AS22" s="10"/>
       <c r="AT22" s="11"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="46"/>
       <c r="B23" s="27"/>
       <c r="C23" s="14"/>
@@ -12932,7 +13377,7 @@
       <c r="AS23" s="10"/>
       <c r="AT23" s="11"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="46"/>
       <c r="B24" s="27"/>
       <c r="C24" s="14"/>
@@ -12980,7 +13425,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="11"/>
     </row>
-    <row r="25" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15.75" thickBot="1">
       <c r="A25" s="46"/>
       <c r="B25" s="27"/>
       <c r="C25" s="14"/>
@@ -13028,7 +13473,7 @@
       <c r="AS25" s="10"/>
       <c r="AT25" s="11"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="47" t="s">
         <v>1</v>
       </c>
@@ -13080,7 +13525,7 @@
       <c r="AS26" s="29"/>
       <c r="AT26" s="30"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="45"/>
       <c r="B27" s="37" t="s">
         <v>44</v>
@@ -13132,7 +13577,7 @@
       <c r="AS27" s="8"/>
       <c r="AT27" s="9"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="45"/>
       <c r="B28" s="38" t="s">
         <v>45</v>
@@ -13184,7 +13629,7 @@
       <c r="AS28" s="8"/>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="45"/>
       <c r="B29" s="39" t="s">
         <v>46</v>
@@ -13236,7 +13681,7 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="9"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="45"/>
       <c r="B30" s="37" t="s">
         <v>47</v>
@@ -13288,7 +13733,7 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="9"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="45"/>
       <c r="B31" s="40" t="s">
         <v>48</v>
@@ -13340,7 +13785,7 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="9"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="45"/>
       <c r="B32" s="39" t="s">
         <v>49</v>
@@ -13392,7 +13837,7 @@
       <c r="AS32" s="8"/>
       <c r="AT32" s="9"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="45"/>
       <c r="B33" s="39" t="s">
         <v>50</v>
@@ -13444,7 +13889,7 @@
       <c r="AS33" s="8"/>
       <c r="AT33" s="9"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="45"/>
       <c r="B34" s="39" t="s">
         <v>51</v>
@@ -13496,7 +13941,7 @@
       <c r="AS34" s="8"/>
       <c r="AT34" s="9"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="45"/>
       <c r="B35" s="37" t="s">
         <v>52</v>
@@ -13548,7 +13993,7 @@
       <c r="AS35" s="8"/>
       <c r="AT35" s="9"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46">
       <c r="A36" s="45"/>
       <c r="B36" s="41" t="s">
         <v>65</v>
@@ -13602,7 +14047,7 @@
       <c r="AS36" s="8"/>
       <c r="AT36" s="9"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46">
       <c r="A37" s="45"/>
       <c r="B37" s="34" t="s">
         <v>66</v>
@@ -13662,7 +14107,7 @@
       <c r="AS37" s="8"/>
       <c r="AT37" s="9"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46">
       <c r="A38" s="45"/>
       <c r="B38" s="16" t="s">
         <v>67</v>
@@ -13714,7 +14159,7 @@
       <c r="AS38" s="8"/>
       <c r="AT38" s="9"/>
     </row>
-    <row r="39" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="15.75" thickBot="1">
       <c r="A39" s="48"/>
       <c r="B39" s="17"/>
       <c r="C39" s="31"/>
@@ -13762,7 +14207,7 @@
       <c r="AS39" s="32"/>
       <c r="AT39" s="33"/>
     </row>
-    <row r="40" spans="1:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" ht="42.75" customHeight="1">
       <c r="A40" s="49" t="s">
         <v>2</v>
       </c>
@@ -13812,7 +14257,7 @@
       <c r="AS40" s="25"/>
       <c r="AT40" s="26"/>
     </row>
-    <row r="41" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" ht="46.5" customHeight="1">
       <c r="A41" s="51" t="s">
         <v>3</v>
       </c>
@@ -13864,7 +14309,7 @@
       <c r="AS41" s="22"/>
       <c r="AT41" s="23"/>
     </row>
-    <row r="42" spans="1:46" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" ht="51" customHeight="1">
       <c r="A42" s="51" t="s">
         <v>4</v>
       </c>
@@ -13914,7 +14359,7 @@
       <c r="AS42" s="22"/>
       <c r="AT42" s="23"/>
     </row>
-    <row r="43" spans="1:46" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
       <c r="A43" s="42" t="s">
         <v>5</v>
       </c>
@@ -13980,12 +14425,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A3:A25"/>
     <mergeCell ref="A26:A39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT39">
@@ -13996,28 +14441,28 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="41" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="43.875" customWidth="1"/>
-    <col min="3" max="6" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="49" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="49" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14065,7 +14510,7 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -14115,7 +14560,7 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
@@ -14165,7 +14610,7 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="7"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="45"/>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
@@ -14213,7 +14658,7 @@
       <c r="AS4" s="8"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="45"/>
       <c r="B5" s="16"/>
       <c r="C5" s="13"/>
@@ -14261,7 +14706,7 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="45"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
@@ -14309,7 +14754,7 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="9"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="45"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
@@ -14357,7 +14802,7 @@
       <c r="AS7" s="8"/>
       <c r="AT7" s="9"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="45"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
@@ -14405,7 +14850,7 @@
       <c r="AS8" s="8"/>
       <c r="AT8" s="9"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="45"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
@@ -14453,7 +14898,7 @@
       <c r="AS9" s="8"/>
       <c r="AT9" s="9"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="45"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
@@ -14501,7 +14946,7 @@
       <c r="AS10" s="8"/>
       <c r="AT10" s="9"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="45"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
@@ -14549,7 +14994,7 @@
       <c r="AS11" s="8"/>
       <c r="AT11" s="9"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="45"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
@@ -14597,7 +15042,7 @@
       <c r="AS12" s="8"/>
       <c r="AT12" s="9"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="45"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
@@ -14645,7 +15090,7 @@
       <c r="AS13" s="8"/>
       <c r="AT13" s="9"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="45"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
@@ -14693,7 +15138,7 @@
       <c r="AS14" s="8"/>
       <c r="AT14" s="9"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="45"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
@@ -14741,7 +15186,7 @@
       <c r="AS15" s="8"/>
       <c r="AT15" s="9"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="45"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
@@ -14789,7 +15234,7 @@
       <c r="AS16" s="8"/>
       <c r="AT16" s="9"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="45"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
@@ -14837,7 +15282,7 @@
       <c r="AS17" s="8"/>
       <c r="AT17" s="9"/>
     </row>
-    <row r="18" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="15.75" thickBot="1">
       <c r="A18" s="46"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
@@ -14885,7 +15330,7 @@
       <c r="AS18" s="10"/>
       <c r="AT18" s="11"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="47" t="s">
         <v>1</v>
       </c>
@@ -14935,7 +15380,7 @@
       <c r="AS19" s="29"/>
       <c r="AT19" s="30"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="45"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
@@ -14983,7 +15428,7 @@
       <c r="AS20" s="8"/>
       <c r="AT20" s="9"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="45"/>
       <c r="B21" s="16"/>
       <c r="C21" s="13"/>
@@ -15031,7 +15476,7 @@
       <c r="AS21" s="8"/>
       <c r="AT21" s="9"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="45"/>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
@@ -15079,7 +15524,7 @@
       <c r="AS22" s="8"/>
       <c r="AT22" s="9"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="45"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
@@ -15127,7 +15572,7 @@
       <c r="AS23" s="8"/>
       <c r="AT23" s="9"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="45"/>
       <c r="B24" s="16"/>
       <c r="C24" s="13"/>
@@ -15175,7 +15620,7 @@
       <c r="AS24" s="8"/>
       <c r="AT24" s="9"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="45"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
@@ -15223,7 +15668,7 @@
       <c r="AS25" s="8"/>
       <c r="AT25" s="9"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="45"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
@@ -15271,7 +15716,7 @@
       <c r="AS26" s="8"/>
       <c r="AT26" s="9"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="45"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
@@ -15319,7 +15764,7 @@
       <c r="AS27" s="8"/>
       <c r="AT27" s="9"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="45"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
@@ -15367,7 +15812,7 @@
       <c r="AS28" s="8"/>
       <c r="AT28" s="9"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="45"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
@@ -15415,7 +15860,7 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="9"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="45"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
@@ -15463,7 +15908,7 @@
       <c r="AS30" s="8"/>
       <c r="AT30" s="9"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="45"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
@@ -15511,7 +15956,7 @@
       <c r="AS31" s="8"/>
       <c r="AT31" s="9"/>
     </row>
-    <row r="32" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15.75" thickBot="1">
       <c r="A32" s="48"/>
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
@@ -15559,7 +16004,7 @@
       <c r="AS32" s="32"/>
       <c r="AT32" s="33"/>
     </row>
-    <row r="33" spans="1:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" ht="42.75" customHeight="1">
       <c r="A33" s="49" t="s">
         <v>2</v>
       </c>
@@ -15609,7 +16054,7 @@
       <c r="AS33" s="25"/>
       <c r="AT33" s="26"/>
     </row>
-    <row r="34" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" ht="46.5" customHeight="1">
       <c r="A34" s="51" t="s">
         <v>3</v>
       </c>
@@ -15661,7 +16106,7 @@
       <c r="AS34" s="22"/>
       <c r="AT34" s="23"/>
     </row>
-    <row r="35" spans="1:46" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" ht="51" customHeight="1">
       <c r="A35" s="51" t="s">
         <v>4</v>
       </c>
@@ -15711,7 +16156,7 @@
       <c r="AS35" s="22"/>
       <c r="AT35" s="23"/>
     </row>
-    <row r="36" spans="1:46" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
       <c r="A36" s="42" t="s">
         <v>5</v>
       </c>
@@ -15763,12 +16208,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:AT36">
@@ -15781,4 +16226,5030 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="49" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="15.75" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+    </row>
+    <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="4"/>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="7"/>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="45"/>
+      <c r="B4" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="9"/>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="45"/>
+      <c r="B5" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="9"/>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="45"/>
+      <c r="B6" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="9"/>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="45"/>
+      <c r="B7" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="9"/>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="45"/>
+      <c r="B8" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="9"/>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" s="45"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="9"/>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="45"/>
+      <c r="B10" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="9"/>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="A11" s="45"/>
+      <c r="B11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="9"/>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="A12" s="45"/>
+      <c r="B12" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="9"/>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="A13" s="45"/>
+      <c r="B13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="9"/>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="A14" s="45"/>
+      <c r="B14" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="9"/>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="A15" s="45"/>
+      <c r="B15" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="9"/>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="A16" s="45"/>
+      <c r="B16" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="9"/>
+    </row>
+    <row r="17" spans="1:46" ht="15.75" thickBot="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="11"/>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="A18" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="30"/>
+    </row>
+    <row r="19" spans="1:46">
+      <c r="A19" s="45"/>
+      <c r="B19" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="9"/>
+    </row>
+    <row r="20" spans="1:46">
+      <c r="A20" s="45"/>
+      <c r="B20" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="9"/>
+    </row>
+    <row r="21" spans="1:46" ht="30">
+      <c r="A21" s="45"/>
+      <c r="B21" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="9"/>
+    </row>
+    <row r="22" spans="1:46">
+      <c r="A22" s="45"/>
+      <c r="B22" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="9"/>
+    </row>
+    <row r="23" spans="1:46">
+      <c r="A23" s="45"/>
+      <c r="B23" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="9"/>
+    </row>
+    <row r="24" spans="1:46">
+      <c r="A24" s="45"/>
+      <c r="B24" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="9"/>
+    </row>
+    <row r="25" spans="1:46">
+      <c r="A25" s="45"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="9"/>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="A26" s="45"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="9"/>
+    </row>
+    <row r="27" spans="1:46">
+      <c r="A27" s="45"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="9"/>
+    </row>
+    <row r="28" spans="1:46">
+      <c r="A28" s="45"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="9"/>
+    </row>
+    <row r="29" spans="1:46">
+      <c r="A29" s="45"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="9"/>
+    </row>
+    <row r="30" spans="1:46" ht="15.75" thickBot="1">
+      <c r="A30" s="48"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="33"/>
+    </row>
+    <row r="31" spans="1:46" ht="42.75" customHeight="1">
+      <c r="A31" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="26"/>
+    </row>
+    <row r="32" spans="1:46" ht="46.5" customHeight="1">
+      <c r="A32" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="23"/>
+    </row>
+    <row r="33" spans="1:46" ht="51" customHeight="1">
+      <c r="A33" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="22"/>
+      <c r="AP33" s="22"/>
+      <c r="AQ33" s="22"/>
+      <c r="AR33" s="22"/>
+      <c r="AS33" s="22"/>
+      <c r="AT33" s="23"/>
+    </row>
+    <row r="34" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A34" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT30">
+      <formula1>"O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34:AT34">
+      <formula1>"FAIL, OK"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS63"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" customWidth="1"/>
+    <col min="3" max="48" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="15.75" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+    </row>
+    <row r="2" spans="1:45" ht="120.75" customHeight="1" thickBot="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="4"/>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="7"/>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" s="45"/>
+      <c r="B4" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="9"/>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" s="45"/>
+      <c r="B5" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="9"/>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" s="45"/>
+      <c r="B6" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="9"/>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" s="45"/>
+      <c r="B7" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="9"/>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" s="45"/>
+      <c r="B8" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="9"/>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" s="45"/>
+      <c r="B9" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="9"/>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" s="45"/>
+      <c r="B10" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="9"/>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" s="45"/>
+      <c r="B11" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="9"/>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" s="45"/>
+      <c r="B12" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="9"/>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" s="45"/>
+      <c r="B13" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="9"/>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" s="45"/>
+      <c r="B14" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="9"/>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" s="45"/>
+      <c r="B15" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="9"/>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" s="45"/>
+      <c r="B16" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="9"/>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" s="45"/>
+      <c r="B17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="9"/>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" s="45"/>
+      <c r="B18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="9"/>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" s="45"/>
+      <c r="B19" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="9"/>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" s="45"/>
+      <c r="B20" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="9"/>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" s="46"/>
+      <c r="B21" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="9"/>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" s="66"/>
+      <c r="B22" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="9"/>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23" s="66"/>
+      <c r="B23" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="9"/>
+    </row>
+    <row r="24" spans="1:45">
+      <c r="A24" s="66"/>
+      <c r="B24" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="9"/>
+    </row>
+    <row r="25" spans="1:45">
+      <c r="A25" s="66"/>
+      <c r="B25" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="9"/>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="A26" s="66"/>
+      <c r="B26" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="9"/>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27" s="66"/>
+      <c r="B27" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="9"/>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="A28" s="66"/>
+      <c r="B28" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8"/>
+      <c r="AN28" s="8"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AS28" s="9"/>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" s="66"/>
+      <c r="B29" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="9"/>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" s="66"/>
+      <c r="B30" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="9"/>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31" s="66"/>
+      <c r="B31" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="9"/>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" s="66"/>
+      <c r="B32" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8"/>
+      <c r="AN32" s="8"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="9"/>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33" s="66"/>
+      <c r="B33" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="9"/>
+    </row>
+    <row r="34" spans="1:45">
+      <c r="A34" s="66"/>
+      <c r="B34" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="8"/>
+      <c r="AQ34" s="8"/>
+      <c r="AR34" s="8"/>
+      <c r="AS34" s="9"/>
+    </row>
+    <row r="35" spans="1:45">
+      <c r="A35" s="66"/>
+      <c r="B35" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8"/>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="9"/>
+    </row>
+    <row r="36" spans="1:45">
+      <c r="A36" s="66"/>
+      <c r="B36" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="9"/>
+    </row>
+    <row r="37" spans="1:45">
+      <c r="A37" s="66"/>
+      <c r="B37" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8"/>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
+      <c r="AP37" s="8"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AS37" s="9"/>
+    </row>
+    <row r="38" spans="1:45">
+      <c r="A38" s="66"/>
+      <c r="B38" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="9"/>
+    </row>
+    <row r="39" spans="1:45">
+      <c r="A39" s="66"/>
+      <c r="B39" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="8"/>
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="8"/>
+      <c r="AS39" s="9"/>
+    </row>
+    <row r="40" spans="1:45">
+      <c r="A40" s="66"/>
+      <c r="B40" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="8"/>
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="8"/>
+      <c r="AS40" s="9"/>
+    </row>
+    <row r="41" spans="1:45">
+      <c r="A41" s="66"/>
+      <c r="B41" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="9"/>
+    </row>
+    <row r="42" spans="1:45">
+      <c r="A42" s="66"/>
+      <c r="B42" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="9"/>
+    </row>
+    <row r="43" spans="1:45">
+      <c r="A43" s="66"/>
+      <c r="B43" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="9"/>
+    </row>
+    <row r="44" spans="1:45">
+      <c r="A44" s="66"/>
+      <c r="B44" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8"/>
+      <c r="AN44" s="8"/>
+      <c r="AO44" s="8"/>
+      <c r="AP44" s="8"/>
+      <c r="AQ44" s="8"/>
+      <c r="AR44" s="8"/>
+      <c r="AS44" s="9"/>
+    </row>
+    <row r="45" spans="1:45">
+      <c r="A45" s="66"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8"/>
+      <c r="AN45" s="8"/>
+      <c r="AO45" s="8"/>
+      <c r="AP45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8"/>
+      <c r="AS45" s="9"/>
+    </row>
+    <row r="46" spans="1:45" ht="15.75" thickBot="1">
+      <c r="A46" s="66"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="32"/>
+      <c r="AJ46" s="32"/>
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="32"/>
+      <c r="AM46" s="32"/>
+      <c r="AN46" s="32"/>
+      <c r="AO46" s="32"/>
+      <c r="AP46" s="32"/>
+      <c r="AQ46" s="32"/>
+      <c r="AR46" s="32"/>
+      <c r="AS46" s="33"/>
+    </row>
+    <row r="47" spans="1:45">
+      <c r="A47" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="30"/>
+    </row>
+    <row r="48" spans="1:45">
+      <c r="A48" s="45"/>
+      <c r="B48" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="8"/>
+      <c r="AN48" s="8"/>
+      <c r="AO48" s="8"/>
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="8"/>
+      <c r="AR48" s="8"/>
+      <c r="AS48" s="9"/>
+    </row>
+    <row r="49" spans="1:45">
+      <c r="A49" s="45"/>
+      <c r="B49" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="8"/>
+      <c r="AO49" s="8"/>
+      <c r="AP49" s="8"/>
+      <c r="AQ49" s="8"/>
+      <c r="AR49" s="8"/>
+      <c r="AS49" s="9"/>
+    </row>
+    <row r="50" spans="1:45">
+      <c r="A50" s="45"/>
+      <c r="B50" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+      <c r="AP50" s="8"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="8"/>
+      <c r="AS50" s="9"/>
+    </row>
+    <row r="51" spans="1:45">
+      <c r="A51" s="45"/>
+      <c r="B51" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8"/>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="8"/>
+      <c r="AS51" s="9"/>
+    </row>
+    <row r="52" spans="1:45">
+      <c r="A52" s="45"/>
+      <c r="B52" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="8"/>
+      <c r="AR52" s="8"/>
+      <c r="AS52" s="9"/>
+    </row>
+    <row r="53" spans="1:45">
+      <c r="A53" s="45"/>
+      <c r="B53" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="8"/>
+      <c r="AP53" s="8"/>
+      <c r="AQ53" s="8"/>
+      <c r="AR53" s="8"/>
+      <c r="AS53" s="9"/>
+    </row>
+    <row r="54" spans="1:45">
+      <c r="A54" s="45"/>
+      <c r="B54" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="8"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" s="8"/>
+      <c r="AS54" s="9"/>
+    </row>
+    <row r="55" spans="1:45" ht="30">
+      <c r="A55" s="45"/>
+      <c r="B55" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="8"/>
+      <c r="AO55" s="8"/>
+      <c r="AP55" s="8"/>
+      <c r="AQ55" s="8"/>
+      <c r="AR55" s="8"/>
+      <c r="AS55" s="9"/>
+    </row>
+    <row r="56" spans="1:45">
+      <c r="A56" s="45"/>
+      <c r="B56" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="8"/>
+      <c r="AN56" s="8"/>
+      <c r="AO56" s="8"/>
+      <c r="AP56" s="8"/>
+      <c r="AQ56" s="8"/>
+      <c r="AR56" s="8"/>
+      <c r="AS56" s="9"/>
+    </row>
+    <row r="57" spans="1:45">
+      <c r="A57" s="45"/>
+      <c r="B57" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="8"/>
+      <c r="AN57" s="8"/>
+      <c r="AO57" s="8"/>
+      <c r="AP57" s="8"/>
+      <c r="AQ57" s="8"/>
+      <c r="AR57" s="8"/>
+      <c r="AS57" s="9"/>
+    </row>
+    <row r="58" spans="1:45">
+      <c r="A58" s="45"/>
+      <c r="B58" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="8"/>
+      <c r="AN58" s="8"/>
+      <c r="AO58" s="8"/>
+      <c r="AP58" s="8"/>
+      <c r="AQ58" s="8"/>
+      <c r="AR58" s="8"/>
+      <c r="AS58" s="9"/>
+    </row>
+    <row r="59" spans="1:45" ht="15.75" thickBot="1">
+      <c r="A59" s="48"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+      <c r="AD59" s="32"/>
+      <c r="AE59" s="32"/>
+      <c r="AF59" s="32"/>
+      <c r="AG59" s="32"/>
+      <c r="AH59" s="32"/>
+      <c r="AI59" s="32"/>
+      <c r="AJ59" s="32"/>
+      <c r="AK59" s="32"/>
+      <c r="AL59" s="32"/>
+      <c r="AM59" s="32"/>
+      <c r="AN59" s="32"/>
+      <c r="AO59" s="32"/>
+      <c r="AP59" s="32"/>
+      <c r="AQ59" s="32"/>
+      <c r="AR59" s="32"/>
+      <c r="AS59" s="33"/>
+    </row>
+    <row r="60" spans="1:45" ht="42.75" customHeight="1">
+      <c r="A60" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="25"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+      <c r="AF60" s="25"/>
+      <c r="AG60" s="25"/>
+      <c r="AH60" s="25"/>
+      <c r="AI60" s="25"/>
+      <c r="AJ60" s="25"/>
+      <c r="AK60" s="25"/>
+      <c r="AL60" s="25"/>
+      <c r="AM60" s="25"/>
+      <c r="AN60" s="25"/>
+      <c r="AO60" s="25"/>
+      <c r="AP60" s="25"/>
+      <c r="AQ60" s="25"/>
+      <c r="AR60" s="25"/>
+      <c r="AS60" s="26"/>
+    </row>
+    <row r="61" spans="1:45" ht="46.5" customHeight="1">
+      <c r="A61" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="52"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="22"/>
+      <c r="AH61" s="22"/>
+      <c r="AI61" s="22"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="22"/>
+      <c r="AO61" s="22"/>
+      <c r="AP61" s="22"/>
+      <c r="AQ61" s="22"/>
+      <c r="AR61" s="22"/>
+      <c r="AS61" s="23"/>
+    </row>
+    <row r="62" spans="1:45" ht="51" customHeight="1">
+      <c r="A62" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="52"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="22"/>
+      <c r="AF62" s="22"/>
+      <c r="AG62" s="22"/>
+      <c r="AH62" s="22"/>
+      <c r="AI62" s="22"/>
+      <c r="AJ62" s="22"/>
+      <c r="AK62" s="22"/>
+      <c r="AL62" s="22"/>
+      <c r="AM62" s="22"/>
+      <c r="AN62" s="22"/>
+      <c r="AO62" s="22"/>
+      <c r="AP62" s="22"/>
+      <c r="AQ62" s="22"/>
+      <c r="AR62" s="22"/>
+      <c r="AS62" s="23"/>
+    </row>
+    <row r="63" spans="1:45" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A63" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="19"/>
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="19"/>
+      <c r="AQ63" s="19"/>
+      <c r="AR63" s="19"/>
+      <c r="AS63" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AS59">
+      <formula1>"O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63:AS63">
+      <formula1>"FAIL, OK"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="39" orientation="landscape" r:id="rId2"/>
+</worksheet>
 </file>
--- a/trunk/WIP/Test/Test Case.xlsx
+++ b/trunk/WIP/Test/Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -14,23 +14,23 @@
     <sheet name="Create_question" sheetId="5" r:id="rId5"/>
     <sheet name="Edit _Question" sheetId="7" r:id="rId6"/>
     <sheet name="Delete_Question" sheetId="8" r:id="rId7"/>
-    <sheet name="Creats user" sheetId="9" r:id="rId8"/>
-    <sheet name="Creats register" sheetId="10" r:id="rId9"/>
+    <sheet name="Create user" sheetId="9" r:id="rId8"/>
+    <sheet name="Create register" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Create register'!$A$2:$C$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Create user'!$A$2:$C$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Create_Contest!$A$2:$C$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Create_question!$A$2:$C$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Creats register'!$A$2:$C$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Creats user'!$A$2:$C$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Delete Contest'!$A$2:$C$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Delete_Question!$A$2:$C$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Edit _Question'!$A$2:$C$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Edit_Contest!$A$2:$C$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$2:$C$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Create register'!$A$1:$AT$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Create user'!$A$1:$AU$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Create_Contest!$A$1:$AU$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Create_question!$A$1:$AU$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Creats register'!$A$1:$AT$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Creats user'!$A$1:$AU$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Delete Contest'!$A$1:$AU$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Delete_Question!$A$1:$AU$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Edit _Question'!$A$1:$AU$44</definedName>
@@ -1165,39 +1165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
@@ -1260,6 +1227,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1675,7 +1675,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15"/>
@@ -1725,7 +1725,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="45"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
       <c r="D4" s="8"/>
@@ -1773,7 +1773,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="45"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
@@ -1821,7 +1821,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -1869,7 +1869,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -1917,7 +1917,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -1965,7 +1965,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="45"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -2013,7 +2013,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="45"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -2061,7 +2061,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
@@ -2109,7 +2109,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -2157,7 +2157,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="45"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -2205,7 +2205,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -2253,7 +2253,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -2301,7 +2301,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="45"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
@@ -2349,7 +2349,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="45"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -2397,7 +2397,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
       <c r="D18" s="10"/>
@@ -2445,7 +2445,7 @@
       <c r="AT18" s="11"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="15"/>
@@ -2495,7 +2495,7 @@
       <c r="AT19" s="30"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="45"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
       <c r="D20" s="8"/>
@@ -2543,7 +2543,7 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="45"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="16"/>
       <c r="C21" s="13"/>
       <c r="D21" s="8"/>
@@ -2591,7 +2591,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="45"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
       <c r="D22" s="8"/>
@@ -2639,7 +2639,7 @@
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="45"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
@@ -2687,7 +2687,7 @@
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="45"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="16"/>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
@@ -2735,7 +2735,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="45"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
@@ -2783,7 +2783,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="45"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -2831,7 +2831,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="45"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
@@ -2879,7 +2879,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="45"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -2927,7 +2927,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="45"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -2975,7 +2975,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="45"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
@@ -3023,7 +3023,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="45"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
       <c r="D31" s="8"/>
@@ -3071,7 +3071,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
@@ -3119,10 +3119,10 @@
       <c r="AT32" s="33"/>
     </row>
     <row r="33" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -3169,10 +3169,10 @@
       <c r="AT33" s="26"/>
     </row>
     <row r="34" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="52"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="21" t="s">
         <v>6</v>
       </c>
@@ -3221,10 +3221,10 @@
       <c r="AT34" s="23"/>
     </row>
     <row r="35" spans="1:46" ht="51" customHeight="1">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="52"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -3271,10 +3271,10 @@
       <c r="AT35" s="23"/>
     </row>
     <row r="36" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -3409,25 +3409,25 @@
     </row>
     <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="42" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="3"/>
@@ -3470,7 +3470,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3522,7 +3522,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="45"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="45"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="45"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="34" t="s">
         <v>12</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="45"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="34" t="s">
         <v>21</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
         <v>10</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
         <v>19</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="45"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="34" t="s">
         <v>11</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="45"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="34" t="s">
         <v>20</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="45"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="34" t="s">
         <v>22</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="45"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="34" t="s">
         <v>10</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="45"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="16" t="s">
         <v>35</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="45"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
       <c r="D20" s="8"/>
@@ -4418,7 +4418,7 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="45"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="16"/>
       <c r="C21" s="13"/>
       <c r="D21" s="8"/>
@@ -4466,7 +4466,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27"/>
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
@@ -4514,7 +4514,7 @@
       <c r="AT22" s="11"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -4566,7 +4566,7 @@
       <c r="AT23" s="30"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="45"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
         <v>16</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="45"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="34" t="s">
         <v>17</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="45"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="34" t="s">
         <v>30</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="45"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="34" t="s">
         <v>31</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="45"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="34" t="s">
         <v>32</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="45"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="34" t="s">
         <v>33</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="45"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="34" t="s">
         <v>34</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="45"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="16" t="s">
         <v>36</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="45"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="16"/>
       <c r="C32" s="13"/>
       <c r="D32" s="8"/>
@@ -5032,7 +5032,7 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="45"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="16"/>
       <c r="C33" s="13"/>
       <c r="D33" s="8"/>
@@ -5080,7 +5080,7 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="45"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
       <c r="D34" s="8"/>
@@ -5128,7 +5128,7 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="45"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="16"/>
       <c r="C35" s="13"/>
       <c r="D35" s="8"/>
@@ -5176,7 +5176,7 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="17"/>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
@@ -5224,10 +5224,10 @@
       <c r="AT36" s="33"/>
     </row>
     <row r="37" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -5274,10 +5274,10 @@
       <c r="AT37" s="26"/>
     </row>
     <row r="38" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -5324,10 +5324,10 @@
       <c r="AT38" s="23"/>
     </row>
     <row r="39" spans="1:46" ht="51" customHeight="1">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -5374,10 +5374,10 @@
       <c r="AT39" s="23"/>
     </row>
     <row r="40" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="18" t="s">
         <v>37</v>
       </c>
@@ -5524,22 +5524,22 @@
     </row>
     <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="44" t="s">
         <v>78</v>
       </c>
       <c r="H2" s="3"/>
@@ -5583,7 +5583,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5637,7 +5637,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="45"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
       <c r="D4" s="8"/>
@@ -5685,7 +5685,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="45"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
         <v>23</v>
       </c>
@@ -5793,7 +5793,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="34" t="s">
         <v>10</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
@@ -5895,7 +5895,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="45"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="34" t="s">
         <v>11</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="45"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="34" t="s">
         <v>12</v>
       </c>
@@ -5999,7 +5999,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
         <v>21</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
         <v>10</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="45"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="34" t="s">
         <v>19</v>
       </c>
@@ -6155,7 +6155,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
@@ -6257,7 +6257,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="45"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="34" t="s">
         <v>12</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="45"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="34" t="s">
         <v>20</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="45"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="34" t="s">
         <v>22</v>
       </c>
@@ -6413,7 +6413,7 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="45"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="34" t="s">
         <v>10</v>
       </c>
@@ -6465,7 +6465,7 @@
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="46"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="27" t="s">
         <v>39</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="AT20" s="11"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="46"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="35"/>
       <c r="C21" s="14"/>
       <c r="D21" s="10"/>
@@ -6563,7 +6563,7 @@
       <c r="AT21" s="11"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27"/>
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
@@ -6611,7 +6611,7 @@
       <c r="AT22" s="11"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -6663,7 +6663,7 @@
       <c r="AT23" s="30"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="45"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
@@ -6713,7 +6713,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="45"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16" t="s">
         <v>18</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="45"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="34" t="s">
         <v>11</v>
       </c>
@@ -6813,7 +6813,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="45"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>13</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46" ht="21" customHeight="1" thickBot="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="34" t="s">
         <v>11</v>
       </c>
@@ -6913,7 +6913,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="45"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="15" t="s">
         <v>15</v>
       </c>
@@ -6963,7 +6963,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="45"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="34" t="s">
         <v>16</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="45"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="34" t="s">
         <v>17</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="45"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="34" t="s">
         <v>30</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="45"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="34" t="s">
         <v>31</v>
       </c>
@@ -7171,7 +7171,7 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="45"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="34" t="s">
         <v>32</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="45"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="34" t="s">
         <v>33</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="45"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="34" t="s">
         <v>34</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="1:46">
-      <c r="A37" s="45"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="16" t="s">
         <v>40</v>
       </c>
@@ -7377,7 +7377,7 @@
       <c r="AT37" s="9"/>
     </row>
     <row r="38" spans="1:46">
-      <c r="A38" s="45"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="16"/>
       <c r="C38" s="13"/>
       <c r="D38" s="8"/>
@@ -7425,7 +7425,7 @@
       <c r="AT38" s="9"/>
     </row>
     <row r="39" spans="1:46">
-      <c r="A39" s="45"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="16"/>
       <c r="C39" s="13"/>
       <c r="D39" s="8"/>
@@ -7473,7 +7473,7 @@
       <c r="AT39" s="9"/>
     </row>
     <row r="40" spans="1:46">
-      <c r="A40" s="45"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="16"/>
       <c r="C40" s="13"/>
       <c r="D40" s="8"/>
@@ -7521,7 +7521,7 @@
       <c r="AT40" s="9"/>
     </row>
     <row r="41" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A41" s="48"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="17"/>
       <c r="C41" s="31"/>
       <c r="D41" s="32"/>
@@ -7569,10 +7569,10 @@
       <c r="AT41" s="33"/>
     </row>
     <row r="42" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="24"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -7619,10 +7619,10 @@
       <c r="AT42" s="26"/>
     </row>
     <row r="43" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="52"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -7669,10 +7669,10 @@
       <c r="AT43" s="23"/>
     </row>
     <row r="44" spans="1:46" ht="51" customHeight="1">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="52"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -7719,10 +7719,10 @@
       <c r="AT44" s="23"/>
     </row>
     <row r="45" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="43"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="18" t="s">
         <v>37</v>
       </c>
@@ -7867,13 +7867,13 @@
     </row>
     <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="48" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="3"/>
@@ -7920,7 +7920,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -7976,7 +7976,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="45"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
@@ -8028,7 +8028,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="45"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
         <v>41</v>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -8128,7 +8128,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -8176,7 +8176,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -8224,7 +8224,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="45"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -8272,7 +8272,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="45"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -8320,7 +8320,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
@@ -8368,7 +8368,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -8416,7 +8416,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="45"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -8464,7 +8464,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -8512,7 +8512,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -8560,7 +8560,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="45"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
@@ -8608,7 +8608,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="45"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -8656,7 +8656,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
       <c r="D18" s="10"/>
@@ -8704,7 +8704,7 @@
       <c r="AT18" s="11"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -8756,7 +8756,7 @@
       <c r="AT19" s="30"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="45"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="34" t="s">
         <v>29</v>
       </c>
@@ -8808,7 +8808,7 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="45"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
         <v>42</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="45"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="34"/>
       <c r="C22" s="13"/>
       <c r="D22" s="8"/>
@@ -8908,7 +8908,7 @@
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="45"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
@@ -8956,7 +8956,7 @@
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46" ht="21" customHeight="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34"/>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
@@ -9004,7 +9004,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="45"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
@@ -9052,7 +9052,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="45"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -9100,7 +9100,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="45"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
@@ -9148,7 +9148,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="45"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -9196,7 +9196,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="45"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -9244,7 +9244,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="45"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
@@ -9292,7 +9292,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="45"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
       <c r="D31" s="8"/>
@@ -9340,7 +9340,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="45"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="16"/>
       <c r="C32" s="13"/>
       <c r="D32" s="8"/>
@@ -9388,7 +9388,7 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="45"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="16"/>
       <c r="C33" s="13"/>
       <c r="D33" s="8"/>
@@ -9436,7 +9436,7 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="45"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
       <c r="D34" s="8"/>
@@ -9484,7 +9484,7 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="45"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="16"/>
       <c r="C35" s="13"/>
       <c r="D35" s="8"/>
@@ -9532,7 +9532,7 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="45"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="16"/>
       <c r="C36" s="13"/>
       <c r="D36" s="8"/>
@@ -9580,7 +9580,7 @@
       <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="17"/>
       <c r="C37" s="31"/>
       <c r="D37" s="32"/>
@@ -9628,10 +9628,10 @@
       <c r="AT37" s="33"/>
     </row>
     <row r="38" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -9678,10 +9678,10 @@
       <c r="AT38" s="26"/>
     </row>
     <row r="39" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="21" t="s">
         <v>6</v>
       </c>
@@ -9730,10 +9730,10 @@
       <c r="AT39" s="23"/>
     </row>
     <row r="40" spans="1:46" ht="51" customHeight="1">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="52"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -9780,10 +9780,10 @@
       <c r="AT40" s="23"/>
     </row>
     <row r="41" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="43"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -9918,28 +9918,28 @@
     </row>
     <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="48" t="s">
         <v>87</v>
       </c>
       <c r="J2" s="3"/>
@@ -9981,7 +9981,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -10033,7 +10033,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="45"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
         <v>54</v>
       </c>
@@ -10085,7 +10085,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="45"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
         <v>55</v>
       </c>
@@ -10135,7 +10135,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16" t="s">
         <v>56</v>
       </c>
@@ -10197,7 +10197,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
         <v>57</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16" t="s">
         <v>58</v>
       </c>
@@ -10299,7 +10299,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="45"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16" t="s">
         <v>59</v>
       </c>
@@ -10351,7 +10351,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="45"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>60</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16" t="s">
         <v>61</v>
       </c>
@@ -10457,7 +10457,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16" t="s">
         <v>63</v>
       </c>
@@ -10509,7 +10509,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="45"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>62</v>
       </c>
@@ -10559,7 +10559,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>58</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16" t="s">
         <v>59</v>
       </c>
@@ -10663,7 +10663,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="45"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16" t="s">
         <v>60</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="45"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="45"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
@@ -10821,7 +10821,7 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="46"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="27" t="s">
         <v>64</v>
       </c>
@@ -10871,7 +10871,7 @@
       <c r="AT19" s="11"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="46"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="27">
         <v>-1</v>
       </c>
@@ -10923,7 +10923,7 @@
       <c r="AT20" s="11"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="46"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="27">
         <v>15</v>
       </c>
@@ -10981,7 +10981,7 @@
       <c r="AT21" s="11"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="46"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27">
         <v>101</v>
       </c>
@@ -11033,7 +11033,7 @@
       <c r="AT22" s="11"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="46"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="27"/>
       <c r="C23" s="14"/>
       <c r="D23" s="10"/>
@@ -11081,7 +11081,7 @@
       <c r="AT23" s="11"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="46"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="27"/>
       <c r="C24" s="14"/>
       <c r="D24" s="10"/>
@@ -11129,7 +11129,7 @@
       <c r="AT24" s="11"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A25" s="46"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="27"/>
       <c r="C25" s="14"/>
       <c r="D25" s="10"/>
@@ -11177,7 +11177,7 @@
       <c r="AT25" s="11"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -11229,7 +11229,7 @@
       <c r="AT26" s="30"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="45"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="37" t="s">
         <v>44</v>
       </c>
@@ -11281,7 +11281,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="45"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="38" t="s">
         <v>45</v>
       </c>
@@ -11333,7 +11333,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="45"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="39" t="s">
         <v>46</v>
       </c>
@@ -11385,7 +11385,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="45"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="37" t="s">
         <v>47</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="45"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="37" t="s">
         <v>48</v>
       </c>
@@ -11489,7 +11489,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="45"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="39" t="s">
         <v>49</v>
       </c>
@@ -11541,7 +11541,7 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="45"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="39" t="s">
         <v>50</v>
       </c>
@@ -11593,7 +11593,7 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="45"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="39" t="s">
         <v>51</v>
       </c>
@@ -11645,7 +11645,7 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="45"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="37" t="s">
         <v>52</v>
       </c>
@@ -11697,7 +11697,7 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="45"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="41" t="s">
         <v>65</v>
       </c>
@@ -11751,7 +11751,7 @@
       <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="1:46">
-      <c r="A37" s="45"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="34" t="s">
         <v>66</v>
       </c>
@@ -11811,7 +11811,7 @@
       <c r="AT37" s="9"/>
     </row>
     <row r="38" spans="1:46">
-      <c r="A38" s="45"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="16" t="s">
         <v>67</v>
       </c>
@@ -11863,7 +11863,7 @@
       <c r="AT38" s="9"/>
     </row>
     <row r="39" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A39" s="48"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="17"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32"/>
@@ -11911,10 +11911,10 @@
       <c r="AT39" s="33"/>
     </row>
     <row r="40" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -11961,10 +11961,10 @@
       <c r="AT40" s="26"/>
     </row>
     <row r="41" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="52"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="21" t="s">
         <v>6</v>
       </c>
@@ -12013,10 +12013,10 @@
       <c r="AT41" s="23"/>
     </row>
     <row r="42" spans="1:46" ht="51" customHeight="1">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="52"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -12063,10 +12063,10 @@
       <c r="AT42" s="23"/>
     </row>
     <row r="43" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="43"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="18" t="s">
         <v>37</v>
       </c>
@@ -12215,28 +12215,28 @@
     </row>
     <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="48" t="s">
         <v>94</v>
       </c>
       <c r="J2" s="3"/>
@@ -12278,7 +12278,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -12330,7 +12330,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="45"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
         <v>54</v>
       </c>
@@ -12382,7 +12382,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="45"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
         <v>55</v>
       </c>
@@ -12432,7 +12432,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16" t="s">
         <v>56</v>
       </c>
@@ -12494,7 +12494,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
         <v>57</v>
       </c>
@@ -12544,7 +12544,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16" t="s">
         <v>58</v>
       </c>
@@ -12596,7 +12596,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="45"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16" t="s">
         <v>59</v>
       </c>
@@ -12648,7 +12648,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="45"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
         <v>60</v>
       </c>
@@ -12700,7 +12700,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16" t="s">
         <v>61</v>
       </c>
@@ -12754,7 +12754,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16" t="s">
         <v>63</v>
       </c>
@@ -12806,7 +12806,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="45"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>62</v>
       </c>
@@ -12856,7 +12856,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>58</v>
       </c>
@@ -12908,7 +12908,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16" t="s">
         <v>59</v>
       </c>
@@ -12960,7 +12960,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="45"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16" t="s">
         <v>60</v>
       </c>
@@ -13012,7 +13012,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="45"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
@@ -13064,7 +13064,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="45"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="16" t="s">
         <v>63</v>
       </c>
@@ -13118,7 +13118,7 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="46"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="27" t="s">
         <v>64</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="AT19" s="11"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="46"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="27">
         <v>-1</v>
       </c>
@@ -13220,7 +13220,7 @@
       <c r="AT20" s="11"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="46"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="27">
         <v>15</v>
       </c>
@@ -13278,7 +13278,7 @@
       <c r="AT21" s="11"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="46"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27">
         <v>101</v>
       </c>
@@ -13330,7 +13330,7 @@
       <c r="AT22" s="11"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="46"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="27"/>
       <c r="C23" s="14"/>
       <c r="D23" s="10"/>
@@ -13378,7 +13378,7 @@
       <c r="AT23" s="11"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="46"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="27"/>
       <c r="C24" s="14"/>
       <c r="D24" s="10"/>
@@ -13426,7 +13426,7 @@
       <c r="AT24" s="11"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A25" s="46"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="27"/>
       <c r="C25" s="14"/>
       <c r="D25" s="10"/>
@@ -13474,7 +13474,7 @@
       <c r="AT25" s="11"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -13526,7 +13526,7 @@
       <c r="AT26" s="30"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="45"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="37" t="s">
         <v>44</v>
       </c>
@@ -13578,7 +13578,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="45"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="38" t="s">
         <v>45</v>
       </c>
@@ -13630,7 +13630,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="45"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="39" t="s">
         <v>46</v>
       </c>
@@ -13682,7 +13682,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="45"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="37" t="s">
         <v>47</v>
       </c>
@@ -13734,7 +13734,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="45"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="40" t="s">
         <v>48</v>
       </c>
@@ -13786,7 +13786,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="45"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="39" t="s">
         <v>49</v>
       </c>
@@ -13838,7 +13838,7 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="45"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="39" t="s">
         <v>50</v>
       </c>
@@ -13890,7 +13890,7 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="45"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="39" t="s">
         <v>51</v>
       </c>
@@ -13942,7 +13942,7 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="45"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="37" t="s">
         <v>52</v>
       </c>
@@ -13994,7 +13994,7 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="45"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="41" t="s">
         <v>65</v>
       </c>
@@ -14048,7 +14048,7 @@
       <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="1:46">
-      <c r="A37" s="45"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="34" t="s">
         <v>66</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="AT37" s="9"/>
     </row>
     <row r="38" spans="1:46">
-      <c r="A38" s="45"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="16" t="s">
         <v>67</v>
       </c>
@@ -14160,7 +14160,7 @@
       <c r="AT38" s="9"/>
     </row>
     <row r="39" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A39" s="48"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="17"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32"/>
@@ -14208,10 +14208,10 @@
       <c r="AT39" s="33"/>
     </row>
     <row r="40" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -14258,10 +14258,10 @@
       <c r="AT40" s="26"/>
     </row>
     <row r="41" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="52"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="21" t="s">
         <v>6</v>
       </c>
@@ -14310,10 +14310,10 @@
       <c r="AT41" s="23"/>
     </row>
     <row r="42" spans="1:46" ht="51" customHeight="1">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="52"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -14360,10 +14360,10 @@
       <c r="AT42" s="23"/>
     </row>
     <row r="43" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="43"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="18" t="s">
         <v>37</v>
       </c>
@@ -14449,7 +14449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
@@ -14561,7 +14561,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15"/>
@@ -14611,7 +14611,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="45"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
       <c r="D4" s="8"/>
@@ -14659,7 +14659,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="45"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
@@ -14707,7 +14707,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -14755,7 +14755,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -14803,7 +14803,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -14851,7 +14851,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="45"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -14899,7 +14899,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="45"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -14947,7 +14947,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
@@ -14995,7 +14995,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -15043,7 +15043,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="45"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -15091,7 +15091,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -15139,7 +15139,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -15187,7 +15187,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="45"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
@@ -15235,7 +15235,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="45"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -15283,7 +15283,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
       <c r="D18" s="10"/>
@@ -15331,7 +15331,7 @@
       <c r="AT18" s="11"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="15"/>
@@ -15381,7 +15381,7 @@
       <c r="AT19" s="30"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="45"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
       <c r="D20" s="8"/>
@@ -15429,7 +15429,7 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="45"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="16"/>
       <c r="C21" s="13"/>
       <c r="D21" s="8"/>
@@ -15477,7 +15477,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="45"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
       <c r="D22" s="8"/>
@@ -15525,7 +15525,7 @@
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="45"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
@@ -15573,7 +15573,7 @@
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="45"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="16"/>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
@@ -15621,7 +15621,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="45"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
@@ -15669,7 +15669,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="45"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -15717,7 +15717,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="45"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
@@ -15765,7 +15765,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="45"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -15813,7 +15813,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="45"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -15861,7 +15861,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="45"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
@@ -15909,7 +15909,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="45"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
       <c r="D31" s="8"/>
@@ -15957,7 +15957,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
@@ -16005,10 +16005,10 @@
       <c r="AT32" s="33"/>
     </row>
     <row r="33" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -16055,10 +16055,10 @@
       <c r="AT33" s="26"/>
     </row>
     <row r="34" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="52"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="21" t="s">
         <v>6</v>
       </c>
@@ -16107,10 +16107,10 @@
       <c r="AT34" s="23"/>
     </row>
     <row r="35" spans="1:46" ht="51" customHeight="1">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="52"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -16157,10 +16157,10 @@
       <c r="AT35" s="23"/>
     </row>
     <row r="36" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -16232,7 +16232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -16298,19 +16298,19 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="48" t="s">
         <v>99</v>
       </c>
       <c r="H2" s="3"/>
@@ -16354,10 +16354,10 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="51" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="12"/>
@@ -16406,8 +16406,8 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="45"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="60" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -16460,8 +16460,8 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="45"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="13"/>
@@ -16514,7 +16514,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
         <v>102</v>
       </c>
@@ -16564,7 +16564,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="34" t="s">
         <v>103</v>
       </c>
@@ -16616,7 +16616,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="34" t="s">
         <v>104</v>
       </c>
@@ -16666,7 +16666,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="45"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -16714,8 +16714,8 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="45"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="52" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="13"/>
@@ -16764,7 +16764,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
         <v>10</v>
       </c>
@@ -16818,7 +16818,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
         <v>101</v>
       </c>
@@ -16870,7 +16870,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="45"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="34" t="s">
         <v>102</v>
       </c>
@@ -16920,7 +16920,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="45"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="34" t="s">
         <v>106</v>
       </c>
@@ -16972,7 +16972,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
         <v>107</v>
       </c>
@@ -17024,8 +17024,8 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="45"/>
-      <c r="B16" s="63" t="s">
+      <c r="A16" s="66"/>
+      <c r="B16" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -17084,8 +17084,8 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="14"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -17132,7 +17132,7 @@
       <c r="AT17" s="11"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="15"/>
@@ -17182,8 +17182,8 @@
       <c r="AT18" s="30"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="45"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="52" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="13"/>
@@ -17232,7 +17232,7 @@
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="45"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="34" t="s">
         <v>110</v>
       </c>
@@ -17286,8 +17286,8 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46" ht="30">
-      <c r="A21" s="45"/>
-      <c r="B21" s="73" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="62" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="13"/>
@@ -17338,7 +17338,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="45"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="34" t="s">
         <v>112</v>
       </c>
@@ -17390,7 +17390,7 @@
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="45"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="34" t="s">
         <v>113</v>
       </c>
@@ -17444,7 +17444,7 @@
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="45"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
         <v>114</v>
       </c>
@@ -17496,7 +17496,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="45"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
@@ -17544,7 +17544,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="45"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -17592,7 +17592,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="45"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
@@ -17640,7 +17640,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="45"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -17688,7 +17688,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="45"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -17736,7 +17736,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="17"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
@@ -17784,10 +17784,10 @@
       <c r="AT30" s="33"/>
     </row>
     <row r="31" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="24"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -17834,10 +17834,10 @@
       <c r="AT31" s="26"/>
     </row>
     <row r="32" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="52"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -17884,10 +17884,10 @@
       <c r="AT32" s="23"/>
     </row>
     <row r="33" spans="1:46" ht="51" customHeight="1">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="52"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -17934,10 +17934,10 @@
       <c r="AT33" s="23"/>
     </row>
     <row r="34" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -17985,12 +17985,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A3:A17"/>
     <mergeCell ref="A18:A30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT30">
@@ -18009,7 +18009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
@@ -18072,19 +18072,19 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="48" t="s">
         <v>119</v>
       </c>
       <c r="H2" s="3"/>
@@ -18127,10 +18127,10 @@
       <c r="AS2" s="4"/>
     </row>
     <row r="3" spans="1:45">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="51" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="12"/>
@@ -18178,8 +18178,8 @@
       <c r="AS3" s="7"/>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="45"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="60" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="13"/>
@@ -18231,8 +18231,8 @@
       <c r="AS4" s="9"/>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -18282,7 +18282,7 @@
       <c r="AS5" s="9"/>
     </row>
     <row r="6" spans="1:45">
-      <c r="A6" s="45"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
         <v>102</v>
       </c>
@@ -18331,7 +18331,7 @@
       <c r="AS6" s="9"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="45"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="34" t="s">
         <v>103</v>
       </c>
@@ -18382,7 +18382,7 @@
       <c r="AS7" s="9"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="45"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="34" t="s">
         <v>120</v>
       </c>
@@ -18433,8 +18433,8 @@
       <c r="AS8" s="9"/>
     </row>
     <row r="9" spans="1:45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="52" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="13"/>
@@ -18482,8 +18482,8 @@
       <c r="AS9" s="9"/>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" s="45"/>
-      <c r="B10" s="71" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -18533,7 +18533,7 @@
       <c r="AS10" s="9"/>
     </row>
     <row r="11" spans="1:45">
-      <c r="A11" s="45"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
         <v>101</v>
       </c>
@@ -18586,7 +18586,7 @@
       <c r="AS11" s="9"/>
     </row>
     <row r="12" spans="1:45">
-      <c r="A12" s="45"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
         <v>122</v>
       </c>
@@ -18637,8 +18637,8 @@
       <c r="AS12" s="9"/>
     </row>
     <row r="13" spans="1:45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="61" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="13"/>
@@ -18688,8 +18688,8 @@
       <c r="AS13" s="9"/>
     </row>
     <row r="14" spans="1:45">
-      <c r="A14" s="45"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="52" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="13"/>
@@ -18737,7 +18737,7 @@
       <c r="AS14" s="9"/>
     </row>
     <row r="15" spans="1:45">
-      <c r="A15" s="45"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
         <v>10</v>
       </c>
@@ -18788,7 +18788,7 @@
       <c r="AS15" s="9"/>
     </row>
     <row r="16" spans="1:45">
-      <c r="A16" s="45"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="34" t="s">
         <v>101</v>
       </c>
@@ -18839,7 +18839,7 @@
       <c r="AS16" s="9"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="45"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="34" t="s">
         <v>102</v>
       </c>
@@ -18888,7 +18888,7 @@
       <c r="AS17" s="9"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="45"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="34" t="s">
         <v>106</v>
       </c>
@@ -18943,7 +18943,7 @@
       <c r="AS18" s="9"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="45"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="34" t="s">
         <v>107</v>
       </c>
@@ -18992,8 +18992,8 @@
       <c r="AS19" s="9"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="45"/>
-      <c r="B20" s="63" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="52" t="s">
         <v>124</v>
       </c>
       <c r="C20" s="13"/>
@@ -19041,8 +19041,8 @@
       <c r="AS20" s="9"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="46"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -19092,8 +19092,8 @@
       <c r="AS21" s="9"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="66"/>
-      <c r="B22" s="70" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="59" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="36"/>
@@ -19141,7 +19141,7 @@
       <c r="AS22" s="9"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="66"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="34" t="s">
         <v>106</v>
       </c>
@@ -19196,8 +19196,8 @@
       <c r="AS23" s="9"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="70" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="59" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="36"/>
@@ -19245,7 +19245,7 @@
       <c r="AS24" s="9"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="66"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="34" t="s">
         <v>125</v>
       </c>
@@ -19296,8 +19296,8 @@
       <c r="AS25" s="9"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="66"/>
-      <c r="B26" s="63" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="52" t="s">
         <v>126</v>
       </c>
       <c r="C26" s="36"/>
@@ -19345,8 +19345,8 @@
       <c r="AS26" s="9"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="66"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="59" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="36" t="s">
@@ -19404,7 +19404,7 @@
       <c r="AS27" s="9"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="66"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
@@ -19453,8 +19453,8 @@
       <c r="AS28" s="9"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="52" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="36"/>
@@ -19502,7 +19502,7 @@
       <c r="AS29" s="9"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="66"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="34" t="s">
         <v>10</v>
       </c>
@@ -19553,7 +19553,7 @@
       <c r="AS30" s="9"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="66"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="34" t="s">
         <v>130</v>
       </c>
@@ -19604,7 +19604,7 @@
       <c r="AS31" s="9"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="A32" s="66"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="34" t="s">
         <v>101</v>
       </c>
@@ -19657,7 +19657,7 @@
       <c r="AS32" s="9"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="66"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="34" t="s">
         <v>131</v>
       </c>
@@ -19708,8 +19708,8 @@
       <c r="AS33" s="9"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="66"/>
-      <c r="B34" s="63" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C34" s="36"/>
@@ -19757,7 +19757,7 @@
       <c r="AS34" s="9"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="66"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="34" t="s">
         <v>10</v>
       </c>
@@ -19808,7 +19808,7 @@
       <c r="AS35" s="9"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="66"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="34" t="s">
         <v>101</v>
       </c>
@@ -19863,7 +19863,7 @@
       <c r="AS36" s="9"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="66"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="34" t="s">
         <v>133</v>
       </c>
@@ -19914,7 +19914,7 @@
       <c r="AS37" s="9"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="66"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="34" t="s">
         <v>134</v>
       </c>
@@ -19963,8 +19963,8 @@
       <c r="AS38" s="9"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="66"/>
-      <c r="B39" s="63" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="52" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="36"/>
@@ -20012,7 +20012,7 @@
       <c r="AS39" s="9"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="66"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="34" t="s">
         <v>10</v>
       </c>
@@ -20063,7 +20063,7 @@
       <c r="AS40" s="9"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="66"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="34" t="s">
         <v>102</v>
       </c>
@@ -20112,7 +20112,7 @@
       <c r="AS41" s="9"/>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="66"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="34" t="s">
         <v>101</v>
       </c>
@@ -20167,7 +20167,7 @@
       <c r="AS42" s="9"/>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="66"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="34" t="s">
         <v>136</v>
       </c>
@@ -20218,8 +20218,8 @@
       <c r="AS43" s="9"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="66"/>
-      <c r="B44" s="63" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="52" t="s">
         <v>137</v>
       </c>
       <c r="C44" s="36" t="s">
@@ -20277,7 +20277,7 @@
       <c r="AS44" s="9"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="66"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="16"/>
       <c r="C45" s="36"/>
       <c r="D45" s="8"/>
@@ -20324,9 +20324,9 @@
       <c r="AS45" s="9"/>
     </row>
     <row r="46" spans="1:45" ht="15.75" thickBot="1">
-      <c r="A46" s="66"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -20371,10 +20371,10 @@
       <c r="AS46" s="33"/>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="51" t="s">
         <v>109</v>
       </c>
       <c r="C47" s="28"/>
@@ -20422,8 +20422,8 @@
       <c r="AS47" s="30"/>
     </row>
     <row r="48" spans="1:45">
-      <c r="A48" s="45"/>
-      <c r="B48" s="67" t="s">
+      <c r="A48" s="66"/>
+      <c r="B48" s="56" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -20473,7 +20473,7 @@
       <c r="AS48" s="9"/>
     </row>
     <row r="49" spans="1:45">
-      <c r="A49" s="45"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="16" t="s">
         <v>138</v>
       </c>
@@ -20524,8 +20524,8 @@
       <c r="AS49" s="9"/>
     </row>
     <row r="50" spans="1:45">
-      <c r="A50" s="45"/>
-      <c r="B50" s="65" t="s">
+      <c r="A50" s="66"/>
+      <c r="B50" s="54" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -20575,7 +20575,7 @@
       <c r="AS50" s="9"/>
     </row>
     <row r="51" spans="1:45">
-      <c r="A51" s="45"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="16" t="s">
         <v>139</v>
       </c>
@@ -20626,7 +20626,7 @@
       <c r="AS51" s="9"/>
     </row>
     <row r="52" spans="1:45">
-      <c r="A52" s="45"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="16" t="s">
         <v>140</v>
       </c>
@@ -20677,7 +20677,7 @@
       <c r="AS52" s="9"/>
     </row>
     <row r="53" spans="1:45">
-      <c r="A53" s="45"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="16" t="s">
         <v>141</v>
       </c>
@@ -20728,7 +20728,7 @@
       <c r="AS53" s="9"/>
     </row>
     <row r="54" spans="1:45">
-      <c r="A54" s="45"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="16" t="s">
         <v>142</v>
       </c>
@@ -20779,8 +20779,8 @@
       <c r="AS54" s="9"/>
     </row>
     <row r="55" spans="1:45" ht="30">
-      <c r="A55" s="45"/>
-      <c r="B55" s="65" t="s">
+      <c r="A55" s="66"/>
+      <c r="B55" s="54" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="13"/>
@@ -20832,7 +20832,7 @@
       <c r="AS55" s="9"/>
     </row>
     <row r="56" spans="1:45">
-      <c r="A56" s="45"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="16" t="s">
         <v>144</v>
       </c>
@@ -20885,7 +20885,7 @@
       <c r="AS56" s="9"/>
     </row>
     <row r="57" spans="1:45">
-      <c r="A57" s="45"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="16" t="s">
         <v>145</v>
       </c>
@@ -20936,7 +20936,7 @@
       <c r="AS57" s="9"/>
     </row>
     <row r="58" spans="1:45">
-      <c r="A58" s="45"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="16" t="s">
         <v>114</v>
       </c>
@@ -20987,7 +20987,7 @@
       <c r="AS58" s="9"/>
     </row>
     <row r="59" spans="1:45" ht="15.75" thickBot="1">
-      <c r="A59" s="48"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="17"/>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
@@ -21034,10 +21034,10 @@
       <c r="AS59" s="33"/>
     </row>
     <row r="60" spans="1:45" ht="42.75" customHeight="1">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="50"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="24"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -21083,10 +21083,10 @@
       <c r="AS60" s="26"/>
     </row>
     <row r="61" spans="1:45" ht="46.5" customHeight="1">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="52"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
@@ -21132,10 +21132,10 @@
       <c r="AS61" s="23"/>
     </row>
     <row r="62" spans="1:45" ht="51" customHeight="1">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="52"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
@@ -21181,10 +21181,10 @@
       <c r="AS62" s="23"/>
     </row>
     <row r="63" spans="1:45" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="43"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -21231,12 +21231,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A3:A21"/>
     <mergeCell ref="A47:A59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AS59">
